--- a/IMPORTANT/TOY VILLA.xlsx
+++ b/IMPORTANT/TOY VILLA.xlsx
@@ -1077,7 +1077,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="A5" sqref="A5:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1145,27 +1145,19 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A5" s="7">
-        <v>44777</v>
-      </c>
-      <c r="B5" s="8">
-        <v>62061</v>
-      </c>
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
-      <c r="F5" s="7">
-        <v>44777</v>
-      </c>
-      <c r="G5" s="8">
-        <v>32000</v>
-      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="8"/>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>30061</v>
+        <v>0</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>18</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1177,11 +1169,11 @@
       <c r="G6" s="8"/>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>30061</v>
+        <v>0</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44795</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1193,11 +1185,11 @@
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>30061</v>
+        <v>0</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44795</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1209,11 +1201,11 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>30061</v>
+        <v>0</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44795</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1225,11 +1217,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>30061</v>
+        <v>0</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44795</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1241,11 +1233,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>30061</v>
+        <v>0</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1257,11 +1249,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>30061</v>
+        <v>0</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1273,11 +1265,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>30061</v>
+        <v>0</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1289,11 +1281,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>30061</v>
+        <v>0</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1305,11 +1297,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>30061</v>
+        <v>0</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1321,11 +1313,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>30061</v>
+        <v>0</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1337,11 +1329,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>30061</v>
+        <v>0</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1353,11 +1345,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>30061</v>
+        <v>0</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1369,11 +1361,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>30061</v>
+        <v>0</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1385,11 +1377,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>30061</v>
+        <v>0</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1401,11 +1393,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>30061</v>
+        <v>0</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1417,11 +1409,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>30061</v>
+        <v>0</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44795</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1433,11 +1425,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>30061</v>
+        <v>0</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1449,11 +1441,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>30061</v>
+        <v>0</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1465,11 +1457,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>30061</v>
+        <v>0</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1481,11 +1473,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>30061</v>
+        <v>0</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1497,11 +1489,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>30061</v>
+        <v>0</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1513,11 +1505,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>30061</v>
+        <v>0</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1529,11 +1521,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>30061</v>
+        <v>0</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1545,11 +1537,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>30061</v>
+        <v>0</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1561,11 +1553,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>30061</v>
+        <v>0</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1577,11 +1569,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>30061</v>
+        <v>0</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1593,11 +1585,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>30061</v>
+        <v>0</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1609,11 +1601,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>30061</v>
+        <v>0</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1626,11 +1618,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>30061</v>
+        <v>0</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44795</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1651,7 +1643,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>62061</v>
+        <v>0</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1659,7 +1651,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>32000</v>
+        <v>0</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1682,7 +1674,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>30061</v>
+        <v>0</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/TOY VILLA.xlsx
+++ b/IMPORTANT/TOY VILLA.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>DATE</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>CUSTOMER NAME -  TOY  VILLA</t>
+  </si>
+  <si>
+    <t>INSURANCE</t>
   </si>
 </sst>
 </file>
@@ -1077,7 +1080,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:G8"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1145,35 +1148,47 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
+      <c r="A5" s="7">
+        <v>44803</v>
+      </c>
+      <c r="B5" s="8">
+        <v>125888</v>
+      </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="8"/>
+      <c r="F5" s="7">
+        <v>44813</v>
+      </c>
+      <c r="G5" s="8">
+        <v>40050</v>
+      </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>0</v>
+        <v>85838</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>44806</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
       <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
+      <c r="B6" s="8">
+        <v>300</v>
+      </c>
       <c r="C6" s="50"/>
-      <c r="D6" s="9"/>
+      <c r="D6" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="F6" s="7"/>
       <c r="G6" s="8"/>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>0</v>
+        <v>86138</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44806</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1185,11 +1200,11 @@
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>0</v>
+        <v>86138</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44806</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1201,11 +1216,11 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>0</v>
+        <v>86138</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44806</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1217,11 +1232,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>0</v>
+        <v>86138</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44806</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1233,11 +1248,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>86138</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1249,11 +1264,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>86138</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1265,11 +1280,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>86138</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1281,11 +1296,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>86138</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1297,11 +1312,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>86138</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1313,11 +1328,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>86138</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1329,11 +1344,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>86138</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1345,11 +1360,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>86138</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1361,11 +1376,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>86138</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1377,11 +1392,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>86138</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1393,11 +1408,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>86138</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1409,11 +1424,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>86138</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44806</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1425,11 +1440,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>86138</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1441,11 +1456,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>86138</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1457,11 +1472,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>86138</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1473,11 +1488,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>86138</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1489,11 +1504,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>86138</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1505,11 +1520,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>86138</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1521,11 +1536,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>86138</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1537,11 +1552,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>86138</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1553,11 +1568,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>86138</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1569,11 +1584,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>86138</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1585,11 +1600,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>86138</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1601,11 +1616,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>0</v>
+        <v>86138</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1618,11 +1633,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>86138</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44806</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1643,7 +1658,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>0</v>
+        <v>126188</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1651,7 +1666,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>0</v>
+        <v>40050</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1674,7 +1689,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>0</v>
+        <v>86138</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/TOY VILLA.xlsx
+++ b/IMPORTANT/TOY VILLA.xlsx
@@ -1080,7 +1080,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1164,11 +1164,11 @@
       </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>85838</v>
+        <v>35838</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1180,15 +1180,19 @@
       <c r="D6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="8"/>
+      <c r="F6" s="7">
+        <v>44825</v>
+      </c>
+      <c r="G6" s="8">
+        <v>50000</v>
+      </c>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>86138</v>
+        <v>36138</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44817</v>
+        <v>44825</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1200,11 +1204,11 @@
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>86138</v>
+        <v>36138</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44817</v>
+        <v>44825</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1216,11 +1220,11 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>86138</v>
+        <v>36138</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44817</v>
+        <v>44825</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1232,11 +1236,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>86138</v>
+        <v>36138</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44817</v>
+        <v>44825</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1248,11 +1252,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>86138</v>
+        <v>36138</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44825</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1264,11 +1268,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>86138</v>
+        <v>36138</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44825</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1280,11 +1284,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>86138</v>
+        <v>36138</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44825</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1296,11 +1300,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>86138</v>
+        <v>36138</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44825</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1312,11 +1316,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>86138</v>
+        <v>36138</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44825</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1328,11 +1332,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>86138</v>
+        <v>36138</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44825</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1344,11 +1348,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>86138</v>
+        <v>36138</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44825</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1360,11 +1364,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>86138</v>
+        <v>36138</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44825</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1376,11 +1380,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>86138</v>
+        <v>36138</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44825</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1392,11 +1396,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>86138</v>
+        <v>36138</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44825</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1408,11 +1412,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>86138</v>
+        <v>36138</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44825</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1424,11 +1428,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>86138</v>
+        <v>36138</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44817</v>
+        <v>44825</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1440,11 +1444,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>86138</v>
+        <v>36138</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44825</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1456,11 +1460,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>86138</v>
+        <v>36138</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44825</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1472,11 +1476,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>86138</v>
+        <v>36138</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44825</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1488,11 +1492,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>86138</v>
+        <v>36138</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44825</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1504,11 +1508,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>86138</v>
+        <v>36138</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44825</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1520,11 +1524,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>86138</v>
+        <v>36138</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44825</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1536,11 +1540,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>86138</v>
+        <v>36138</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44825</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1552,11 +1556,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>86138</v>
+        <v>36138</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44825</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1568,11 +1572,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>86138</v>
+        <v>36138</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44825</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1584,11 +1588,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>86138</v>
+        <v>36138</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44825</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1600,11 +1604,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>86138</v>
+        <v>36138</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44825</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1616,11 +1620,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>86138</v>
+        <v>36138</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44825</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1633,11 +1637,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>86138</v>
+        <v>36138</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44817</v>
+        <v>44825</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1666,7 +1670,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>40050</v>
+        <v>90050</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1689,7 +1693,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>86138</v>
+        <v>36138</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/TOY VILLA.xlsx
+++ b/IMPORTANT/TOY VILLA.xlsx
@@ -1080,7 +1080,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection sqref="A1:I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1168,7 +1168,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44825</v>
+        <v>44829</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1208,7 +1208,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44825</v>
+        <v>44829</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1224,7 +1224,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44825</v>
+        <v>44829</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44825</v>
+        <v>44829</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1256,7 +1256,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44825</v>
+        <v>44829</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1272,7 +1272,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44825</v>
+        <v>44829</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44825</v>
+        <v>44829</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1304,7 +1304,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44825</v>
+        <v>44829</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44825</v>
+        <v>44829</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44825</v>
+        <v>44829</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1352,7 +1352,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44825</v>
+        <v>44829</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1368,7 +1368,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44825</v>
+        <v>44829</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44825</v>
+        <v>44829</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1400,7 +1400,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44825</v>
+        <v>44829</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1416,7 +1416,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44825</v>
+        <v>44829</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44825</v>
+        <v>44829</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1448,7 +1448,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44825</v>
+        <v>44829</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44825</v>
+        <v>44829</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44825</v>
+        <v>44829</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1496,7 +1496,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44825</v>
+        <v>44829</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1512,7 +1512,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44825</v>
+        <v>44829</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44825</v>
+        <v>44829</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1544,7 +1544,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44825</v>
+        <v>44829</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1560,7 +1560,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44825</v>
+        <v>44829</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44825</v>
+        <v>44829</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1592,7 +1592,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44825</v>
+        <v>44829</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1608,7 +1608,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44825</v>
+        <v>44829</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44825</v>
+        <v>44829</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1641,7 +1641,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44825</v>
+        <v>44829</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">

--- a/IMPORTANT/TOY VILLA.xlsx
+++ b/IMPORTANT/TOY VILLA.xlsx
@@ -1080,7 +1080,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I38"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1164,11 +1164,11 @@
       </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>35838</v>
+        <v>10038</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1188,27 +1188,35 @@
       </c>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>36138</v>
+        <v>10338</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44829</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A7" s="49"/>
-      <c r="B7" s="16"/>
+      <c r="A7" s="49">
+        <v>44827</v>
+      </c>
+      <c r="B7" s="16">
+        <v>19662</v>
+      </c>
       <c r="C7" s="9"/>
       <c r="D7" s="51"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="16"/>
+      <c r="F7" s="49">
+        <v>44834</v>
+      </c>
+      <c r="G7" s="16">
+        <v>25800</v>
+      </c>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>36138</v>
+        <v>30000</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44829</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1220,11 +1228,11 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>36138</v>
+        <v>30000</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44829</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1236,11 +1244,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>36138</v>
+        <v>30000</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44829</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1252,11 +1260,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>36138</v>
+        <v>30000</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44829</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1268,11 +1276,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>36138</v>
+        <v>30000</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44829</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1284,11 +1292,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>36138</v>
+        <v>30000</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44829</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1300,11 +1308,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>36138</v>
+        <v>30000</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44829</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1316,11 +1324,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>36138</v>
+        <v>30000</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44829</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1332,11 +1340,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>36138</v>
+        <v>30000</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44829</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1348,11 +1356,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>36138</v>
+        <v>30000</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44829</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1364,11 +1372,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>36138</v>
+        <v>30000</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44829</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1380,11 +1388,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>36138</v>
+        <v>30000</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44829</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1396,11 +1404,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>36138</v>
+        <v>30000</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44829</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1412,11 +1420,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>36138</v>
+        <v>30000</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44829</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1428,11 +1436,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>36138</v>
+        <v>30000</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44829</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1444,11 +1452,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>36138</v>
+        <v>30000</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44829</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1460,11 +1468,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>36138</v>
+        <v>30000</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44829</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1476,11 +1484,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>36138</v>
+        <v>30000</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44829</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1492,11 +1500,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>36138</v>
+        <v>30000</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44829</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1508,11 +1516,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>36138</v>
+        <v>30000</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44829</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1524,11 +1532,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>36138</v>
+        <v>30000</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44829</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1540,11 +1548,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>36138</v>
+        <v>30000</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44829</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1556,11 +1564,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>36138</v>
+        <v>30000</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44829</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1572,11 +1580,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>36138</v>
+        <v>30000</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44829</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1588,11 +1596,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>36138</v>
+        <v>30000</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44829</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1604,11 +1612,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>36138</v>
+        <v>30000</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44829</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1620,11 +1628,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>36138</v>
+        <v>30000</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44829</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1637,11 +1645,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>36138</v>
+        <v>30000</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44829</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1662,7 +1670,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>126188</v>
+        <v>145850</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1670,7 +1678,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>90050</v>
+        <v>115850</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1693,7 +1701,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>36138</v>
+        <v>30000</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/TOY VILLA.xlsx
+++ b/IMPORTANT/TOY VILLA.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>DATE</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>INSURANCE</t>
+  </si>
+  <si>
+    <t>INSUARANCE</t>
   </si>
 </sst>
 </file>
@@ -291,7 +294,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
@@ -406,9 +409,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1077,10 +1077,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:N39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1096,12 +1096,12 @@
     <col min="9" max="9" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:14">
       <c r="E1" s="34" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75">
+    <row r="2" spans="1:14" ht="15.75">
       <c r="A2" s="41" t="s">
         <v>11</v>
       </c>
@@ -1112,7 +1112,7 @@
       <c r="F2" s="42"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:9" ht="16.5" thickBot="1">
+    <row r="3" spans="1:14" ht="16.5" thickBot="1">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1121,7 +1121,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
+    <row r="4" spans="1:14" ht="17.25" thickTop="1" thickBot="1">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1147,7 +1147,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
+    <row r="5" spans="1:14" ht="17.25" thickTop="1" thickBot="1">
       <c r="A5" s="7">
         <v>44803</v>
       </c>
@@ -1168,10 +1168,10 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="17.25" thickTop="1" thickBot="1">
       <c r="A6" s="7"/>
       <c r="B6" s="8">
         <v>300</v>
@@ -1192,10 +1192,10 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44838</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
+        <v>44844</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="17.25" thickTop="1" thickBot="1">
       <c r="A7" s="49">
         <v>44827</v>
       </c>
@@ -1216,43 +1216,51 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A8" s="15"/>
-      <c r="B8" s="16"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A8" s="15">
+        <v>44832</v>
+      </c>
+      <c r="B8" s="16">
+        <v>91280</v>
+      </c>
       <c r="C8" s="19"/>
-      <c r="D8" s="52"/>
+      <c r="D8" s="18"/>
       <c r="F8" s="15"/>
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>30000</v>
+        <v>121280</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44838</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A9" s="53"/>
-      <c r="B9" s="13"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A9" s="52"/>
+      <c r="B9" s="13">
+        <v>150</v>
+      </c>
       <c r="C9" s="14"/>
-      <c r="D9" s="18"/>
+      <c r="D9" s="18" t="s">
+        <v>13</v>
+      </c>
       <c r="F9" s="15"/>
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>30000</v>
+        <v>121430</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44838</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A10" s="53"/>
+        <v>44844</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A10" s="52"/>
       <c r="B10" s="13"/>
       <c r="C10" s="14"/>
       <c r="D10" s="18"/>
@@ -1260,15 +1268,15 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>30000</v>
+        <v>121430</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A11" s="53"/>
+        <v>44844</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A11" s="52"/>
       <c r="B11" s="17"/>
       <c r="C11" s="19"/>
       <c r="D11" s="18"/>
@@ -1276,15 +1284,21 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>30000</v>
+        <v>121430</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A12" s="53"/>
+        <v>44844</v>
+      </c>
+      <c r="M11" s="46">
+        <v>44801</v>
+      </c>
+      <c r="N11">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A12" s="52"/>
       <c r="B12" s="17"/>
       <c r="C12" s="14"/>
       <c r="D12" s="18"/>
@@ -1292,15 +1306,21 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>30000</v>
+        <v>121430</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A13" s="53"/>
+        <v>44844</v>
+      </c>
+      <c r="M12" s="46">
+        <v>44813</v>
+      </c>
+      <c r="N12">
+        <v>40050</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A13" s="52"/>
       <c r="B13" s="13"/>
       <c r="C13" s="14"/>
       <c r="D13" s="18"/>
@@ -1308,15 +1328,15 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>30000</v>
+        <v>121430</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A14" s="53"/>
+        <v>44844</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A14" s="52"/>
       <c r="B14" s="17"/>
       <c r="C14" s="14"/>
       <c r="D14" s="18"/>
@@ -1324,15 +1344,19 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>30000</v>
+        <v>121430</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A15" s="53"/>
+        <v>44844</v>
+      </c>
+      <c r="N14">
+        <f>SUM(N11:N12)</f>
+        <v>60050</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A15" s="52"/>
       <c r="B15" s="17"/>
       <c r="C15" s="19"/>
       <c r="D15" s="18"/>
@@ -1340,15 +1364,15 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>30000</v>
+        <v>121430</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A16" s="53"/>
+        <v>44844</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A16" s="52"/>
       <c r="B16" s="17"/>
       <c r="C16" s="14"/>
       <c r="D16" s="18"/>
@@ -1356,15 +1380,15 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>30000</v>
+        <v>121430</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44844</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A17" s="53"/>
+      <c r="A17" s="52"/>
       <c r="B17" s="13"/>
       <c r="C17" s="14"/>
       <c r="D17" s="18"/>
@@ -1372,15 +1396,15 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>30000</v>
+        <v>121430</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44844</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A18" s="53"/>
+      <c r="A18" s="52"/>
       <c r="B18" s="13"/>
       <c r="C18" s="14"/>
       <c r="D18" s="18"/>
@@ -1388,15 +1412,15 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>30000</v>
+        <v>121430</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44844</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A19" s="53"/>
+      <c r="A19" s="52"/>
       <c r="B19" s="13"/>
       <c r="C19" s="14"/>
       <c r="D19" s="18"/>
@@ -1404,15 +1428,15 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>30000</v>
+        <v>121430</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44844</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A20" s="53"/>
+      <c r="A20" s="52"/>
       <c r="B20" s="13"/>
       <c r="C20" s="14"/>
       <c r="D20" s="18"/>
@@ -1420,15 +1444,15 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>30000</v>
+        <v>121430</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44844</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A21" s="53"/>
+      <c r="A21" s="52"/>
       <c r="B21" s="13"/>
       <c r="C21" s="14"/>
       <c r="D21" s="18"/>
@@ -1436,15 +1460,15 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>30000</v>
+        <v>121430</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44838</v>
+        <v>44844</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A22" s="53"/>
+      <c r="A22" s="52"/>
       <c r="B22" s="13"/>
       <c r="C22" s="14"/>
       <c r="D22" s="18"/>
@@ -1452,15 +1476,15 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>30000</v>
+        <v>121430</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44844</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A23" s="53"/>
+      <c r="A23" s="52"/>
       <c r="B23" s="13"/>
       <c r="C23" s="14"/>
       <c r="D23" s="18"/>
@@ -1468,15 +1492,15 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>30000</v>
+        <v>121430</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44844</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A24" s="53"/>
+      <c r="A24" s="52"/>
       <c r="B24" s="13"/>
       <c r="C24" s="14"/>
       <c r="D24" s="18"/>
@@ -1484,15 +1508,15 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>30000</v>
+        <v>121430</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44844</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A25" s="53"/>
+      <c r="A25" s="52"/>
       <c r="B25" s="13"/>
       <c r="C25" s="14"/>
       <c r="D25" s="18"/>
@@ -1500,15 +1524,15 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>30000</v>
+        <v>121430</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44844</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A26" s="53"/>
+      <c r="A26" s="52"/>
       <c r="B26" s="13"/>
       <c r="C26" s="14"/>
       <c r="D26" s="18"/>
@@ -1516,15 +1540,15 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>30000</v>
+        <v>121430</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44844</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A27" s="53"/>
+      <c r="A27" s="52"/>
       <c r="B27" s="13"/>
       <c r="C27" s="14"/>
       <c r="D27" s="18"/>
@@ -1532,15 +1556,15 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>30000</v>
+        <v>121430</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44844</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A28" s="53"/>
+      <c r="A28" s="52"/>
       <c r="B28" s="13"/>
       <c r="C28" s="14"/>
       <c r="D28" s="18"/>
@@ -1548,15 +1572,15 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>30000</v>
+        <v>121430</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44844</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A29" s="53"/>
+      <c r="A29" s="52"/>
       <c r="B29" s="13"/>
       <c r="C29" s="14"/>
       <c r="D29" s="18"/>
@@ -1564,15 +1588,15 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>30000</v>
+        <v>121430</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44844</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A30" s="53"/>
+      <c r="A30" s="52"/>
       <c r="B30" s="13"/>
       <c r="C30" s="14"/>
       <c r="D30" s="18"/>
@@ -1580,15 +1604,15 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>30000</v>
+        <v>121430</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44844</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A31" s="53"/>
+      <c r="A31" s="52"/>
       <c r="B31" s="13"/>
       <c r="C31" s="14"/>
       <c r="D31" s="18"/>
@@ -1596,15 +1620,15 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>30000</v>
+        <v>121430</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44844</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A32" s="53"/>
+      <c r="A32" s="52"/>
       <c r="B32" s="13"/>
       <c r="C32" s="14"/>
       <c r="D32" s="18"/>
@@ -1612,15 +1636,15 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>30000</v>
+        <v>121430</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44844</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A33" s="54"/>
+      <c r="A33" s="53"/>
       <c r="B33" s="13"/>
       <c r="C33" s="14"/>
       <c r="D33" s="18"/>
@@ -1628,15 +1652,15 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>30000</v>
+        <v>121430</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44844</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A34" s="55"/>
+      <c r="A34" s="54"/>
       <c r="B34" s="22"/>
       <c r="C34" s="23"/>
       <c r="D34" s="22"/>
@@ -1645,11 +1669,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>30000</v>
+        <v>121430</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44838</v>
+        <v>44844</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1670,7 +1694,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>145850</v>
+        <v>237280</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1701,7 +1725,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>30000</v>
+        <v>121430</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/TOY VILLA.xlsx
+++ b/IMPORTANT/TOY VILLA.xlsx
@@ -1080,7 +1080,7 @@
   <dimension ref="A1:N39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1168,7 +1168,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="17.25" thickTop="1" thickBot="1">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44844</v>
+        <v>44849</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="17.25" thickTop="1" thickBot="1">
@@ -1216,7 +1216,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
@@ -1236,7 +1236,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
@@ -1256,39 +1256,45 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
+        <v>44849</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A10" s="52">
         <v>44844</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A10" s="52"/>
-      <c r="B10" s="13"/>
+      <c r="B10" s="13">
+        <v>31344</v>
+      </c>
       <c r="C10" s="14"/>
       <c r="D10" s="18"/>
       <c r="F10" s="15"/>
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>121430</v>
+        <v>152774</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44844</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
       <c r="A11" s="52"/>
-      <c r="B11" s="17"/>
+      <c r="B11" s="17">
+        <v>50</v>
+      </c>
       <c r="C11" s="19"/>
       <c r="D11" s="18"/>
       <c r="F11" s="15"/>
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>121430</v>
+        <v>152824</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44844</v>
+        <v>44849</v>
       </c>
       <c r="M11" s="46">
         <v>44801</v>
@@ -1306,11 +1312,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>121430</v>
+        <v>152824</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44844</v>
+        <v>44849</v>
       </c>
       <c r="M12" s="46">
         <v>44813</v>
@@ -1328,11 +1334,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>121430</v>
+        <v>152824</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44844</v>
+        <v>44849</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
@@ -1344,11 +1350,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>121430</v>
+        <v>152824</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44844</v>
+        <v>44849</v>
       </c>
       <c r="N14">
         <f>SUM(N11:N12)</f>
@@ -1364,11 +1370,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>121430</v>
+        <v>152824</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44844</v>
+        <v>44849</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
@@ -1380,11 +1386,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>121430</v>
+        <v>152824</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44844</v>
+        <v>44849</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1396,11 +1402,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>121430</v>
+        <v>152824</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44844</v>
+        <v>44849</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1412,11 +1418,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>121430</v>
+        <v>152824</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44844</v>
+        <v>44849</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1428,11 +1434,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>121430</v>
+        <v>152824</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44844</v>
+        <v>44849</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1444,11 +1450,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>121430</v>
+        <v>152824</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44844</v>
+        <v>44849</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1460,11 +1466,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>121430</v>
+        <v>152824</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44844</v>
+        <v>44849</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1476,11 +1482,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>121430</v>
+        <v>152824</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44844</v>
+        <v>44849</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1492,11 +1498,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>121430</v>
+        <v>152824</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44844</v>
+        <v>44849</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1508,11 +1514,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>121430</v>
+        <v>152824</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44844</v>
+        <v>44849</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1524,11 +1530,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>121430</v>
+        <v>152824</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44844</v>
+        <v>44849</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1540,11 +1546,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>121430</v>
+        <v>152824</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44844</v>
+        <v>44849</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1556,11 +1562,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>121430</v>
+        <v>152824</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44844</v>
+        <v>44849</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1572,11 +1578,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>121430</v>
+        <v>152824</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44844</v>
+        <v>44849</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1588,11 +1594,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>121430</v>
+        <v>152824</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44844</v>
+        <v>44849</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1604,11 +1610,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>121430</v>
+        <v>152824</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44844</v>
+        <v>44849</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1620,11 +1626,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>121430</v>
+        <v>152824</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44844</v>
+        <v>44849</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1636,11 +1642,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>121430</v>
+        <v>152824</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44844</v>
+        <v>44849</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1652,11 +1658,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>121430</v>
+        <v>152824</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44844</v>
+        <v>44849</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1669,11 +1675,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>121430</v>
+        <v>152824</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44844</v>
+        <v>44849</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1694,7 +1700,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>237280</v>
+        <v>268674</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1725,7 +1731,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>121430</v>
+        <v>152824</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/TOY VILLA.xlsx
+++ b/IMPORTANT/TOY VILLA.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>DATE</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>INSUARANCE</t>
+  </si>
+  <si>
+    <t>rtgs</t>
   </si>
 </sst>
 </file>
@@ -1077,10 +1080,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N39"/>
+  <dimension ref="A1:M39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1096,12 +1099,12 @@
     <col min="9" max="9" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:13">
       <c r="E1" s="34" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15.75">
+    <row r="2" spans="1:13" ht="15.75">
       <c r="A2" s="41" t="s">
         <v>11</v>
       </c>
@@ -1112,7 +1115,7 @@
       <c r="F2" s="42"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:14" ht="16.5" thickBot="1">
+    <row r="3" spans="1:13" ht="16.5" thickBot="1">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1121,7 +1124,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:14" ht="17.25" thickTop="1" thickBot="1">
+    <row r="4" spans="1:13" ht="17.25" thickTop="1" thickBot="1">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1147,7 +1150,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="17.25" thickTop="1" thickBot="1">
+    <row r="5" spans="1:13" ht="17.25" thickTop="1" thickBot="1">
       <c r="A5" s="7">
         <v>44803</v>
       </c>
@@ -1164,14 +1167,17 @@
       </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>10038</v>
+        <v>-17007</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="17.25" thickTop="1" thickBot="1">
+        <v>50</v>
+      </c>
+      <c r="J5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="17.25" thickTop="1" thickBot="1">
       <c r="A6" s="7"/>
       <c r="B6" s="8">
         <v>300</v>
@@ -1188,14 +1194,14 @@
       </c>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>10338</v>
+        <v>-16707</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44849</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="17.25" thickTop="1" thickBot="1">
+        <v>44853</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="17.25" thickTop="1" thickBot="1">
       <c r="A7" s="49">
         <v>44827</v>
       </c>
@@ -1212,14 +1218,17 @@
       </c>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>30000</v>
+        <v>2955</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
+        <v>26</v>
+      </c>
+      <c r="J7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
       <c r="A8" s="15">
         <v>44832</v>
       </c>
@@ -1228,38 +1237,47 @@
       </c>
       <c r="C8" s="19"/>
       <c r="D8" s="18"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="16"/>
+      <c r="F8" s="15">
+        <v>44851</v>
+      </c>
+      <c r="G8" s="16">
+        <v>21045</v>
+      </c>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>121280</v>
+        <v>94235</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
+        <v>21</v>
+      </c>
+      <c r="J8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
       <c r="A9" s="52"/>
-      <c r="B9" s="13">
-        <v>150</v>
-      </c>
+      <c r="B9" s="13"/>
       <c r="C9" s="14"/>
       <c r="D9" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="15"/>
-      <c r="G9" s="16"/>
+      <c r="F9" s="15">
+        <v>44853</v>
+      </c>
+      <c r="G9" s="16">
+        <v>6000</v>
+      </c>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>121430</v>
+        <v>94235</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44849</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
+        <v>44853</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
       <c r="A10" s="52">
         <v>44844</v>
       </c>
@@ -1272,60 +1290,52 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>152774</v>
+        <v>125579</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
       <c r="A11" s="52"/>
-      <c r="B11" s="17">
-        <v>50</v>
-      </c>
+      <c r="B11" s="17"/>
       <c r="C11" s="19"/>
       <c r="D11" s="18"/>
       <c r="F11" s="15"/>
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>152824</v>
+        <v>125579</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44849</v>
-      </c>
-      <c r="M11" s="46">
-        <v>44801</v>
-      </c>
-      <c r="N11">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A12" s="52"/>
-      <c r="B12" s="17"/>
+        <v>44853</v>
+      </c>
+      <c r="M11" s="46"/>
+    </row>
+    <row r="12" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A12" s="52">
+        <v>44851</v>
+      </c>
+      <c r="B12" s="17">
+        <v>30634</v>
+      </c>
       <c r="C12" s="14"/>
       <c r="D12" s="18"/>
       <c r="F12" s="15"/>
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>152824</v>
+        <v>156213</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44849</v>
-      </c>
-      <c r="M12" s="46">
-        <v>44813</v>
-      </c>
-      <c r="N12">
-        <v>40050</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
+        <v>2</v>
+      </c>
+      <c r="M12" s="46"/>
+    </row>
+    <row r="13" spans="1:13" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
       <c r="A13" s="52"/>
       <c r="B13" s="13"/>
       <c r="C13" s="14"/>
@@ -1334,14 +1344,14 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>152824</v>
+        <v>156213</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44849</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
+        <v>44853</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
       <c r="A14" s="52"/>
       <c r="B14" s="17"/>
       <c r="C14" s="14"/>
@@ -1350,18 +1360,14 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>152824</v>
+        <v>156213</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44849</v>
-      </c>
-      <c r="N14">
-        <f>SUM(N11:N12)</f>
-        <v>60050</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
+        <v>44853</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
       <c r="A15" s="52"/>
       <c r="B15" s="17"/>
       <c r="C15" s="19"/>
@@ -1370,14 +1376,14 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>152824</v>
+        <v>156213</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44849</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
+        <v>44853</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
       <c r="A16" s="52"/>
       <c r="B16" s="17"/>
       <c r="C16" s="14"/>
@@ -1386,11 +1392,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>152824</v>
+        <v>156213</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44849</v>
+        <v>44853</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1402,11 +1408,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>152824</v>
+        <v>156213</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44849</v>
+        <v>44853</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1418,11 +1424,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>152824</v>
+        <v>156213</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44849</v>
+        <v>44853</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1434,11 +1440,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>152824</v>
+        <v>156213</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44849</v>
+        <v>44853</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1450,11 +1456,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>152824</v>
+        <v>156213</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44849</v>
+        <v>44853</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1466,11 +1472,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>152824</v>
+        <v>156213</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44849</v>
+        <v>44853</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1482,11 +1488,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>152824</v>
+        <v>156213</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44849</v>
+        <v>44853</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1498,11 +1504,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>152824</v>
+        <v>156213</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44849</v>
+        <v>44853</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1514,11 +1520,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>152824</v>
+        <v>156213</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44849</v>
+        <v>44853</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1530,11 +1536,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>152824</v>
+        <v>156213</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44849</v>
+        <v>44853</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1546,11 +1552,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>152824</v>
+        <v>156213</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44849</v>
+        <v>44853</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1562,11 +1568,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>152824</v>
+        <v>156213</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44849</v>
+        <v>44853</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1578,11 +1584,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>152824</v>
+        <v>156213</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44849</v>
+        <v>44853</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1594,11 +1600,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>152824</v>
+        <v>156213</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44849</v>
+        <v>44853</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1610,11 +1616,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>152824</v>
+        <v>156213</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44849</v>
+        <v>44853</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1626,11 +1632,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>152824</v>
+        <v>156213</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44849</v>
+        <v>44853</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1642,11 +1648,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>152824</v>
+        <v>156213</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44849</v>
+        <v>44853</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1658,11 +1664,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>152824</v>
+        <v>156213</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44849</v>
+        <v>44853</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1675,11 +1681,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>152824</v>
+        <v>156213</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44849</v>
+        <v>44853</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1700,7 +1706,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>268674</v>
+        <v>299108</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1708,7 +1714,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>115850</v>
+        <v>142895</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1731,7 +1737,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>152824</v>
+        <v>156213</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>
@@ -2086,7 +2092,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.95" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="76" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="78" orientation="landscape" verticalDpi="0" r:id="rId1"/>
   <webPublishItems count="1">
     <webPublishItem id="16596" divId="MEMO BIG_16596" sourceType="sheet" destinationFile="E:\UPDATE\WEBSITE\2084377289testbysam\IMPORTANT\SAGAR UNCLE.htm" autoRepublish="1"/>
   </webPublishItems>

--- a/IMPORTANT/TOY VILLA.xlsx
+++ b/IMPORTANT/TOY VILLA.xlsx
@@ -1083,7 +1083,7 @@
   <dimension ref="A1:M39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1167,11 +1167,11 @@
       </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>-17007</v>
+        <v>-117007</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="J5" t="s">
         <v>14</v>
@@ -1194,11 +1194,11 @@
       </c>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>-16707</v>
+        <v>-116707</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44853</v>
+        <v>44867</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="17.25" thickTop="1" thickBot="1">
@@ -1218,11 +1218,11 @@
       </c>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>2955</v>
+        <v>-97045</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="J7" t="s">
         <v>14</v>
@@ -1245,11 +1245,11 @@
       </c>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>94235</v>
+        <v>-5765</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="J8" t="s">
         <v>14</v>
@@ -1270,11 +1270,11 @@
       </c>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>94235</v>
+        <v>-5765</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44853</v>
+        <v>44867</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1286,15 +1286,19 @@
       </c>
       <c r="C10" s="14"/>
       <c r="D10" s="18"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="16"/>
+      <c r="F10" s="15">
+        <v>44867</v>
+      </c>
+      <c r="G10" s="16">
+        <v>100000</v>
+      </c>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>125579</v>
+        <v>25579</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1306,11 +1310,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>125579</v>
+        <v>25579</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44853</v>
+        <v>44867</v>
       </c>
       <c r="M11" s="46"/>
     </row>
@@ -1327,28 +1331,32 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>156213</v>
+        <v>56213</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="M12" s="46"/>
     </row>
     <row r="13" spans="1:13" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A13" s="52"/>
-      <c r="B13" s="13"/>
+      <c r="A13" s="52">
+        <v>44862</v>
+      </c>
+      <c r="B13" s="13">
+        <v>40573</v>
+      </c>
       <c r="C13" s="14"/>
       <c r="D13" s="18"/>
       <c r="F13" s="12"/>
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>156213</v>
+        <v>96786</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44853</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1360,11 +1368,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>156213</v>
+        <v>96786</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44853</v>
+        <v>44867</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1376,11 +1384,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>156213</v>
+        <v>96786</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44853</v>
+        <v>44867</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1392,11 +1400,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>156213</v>
+        <v>96786</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44853</v>
+        <v>44867</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1408,11 +1416,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>156213</v>
+        <v>96786</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44853</v>
+        <v>44867</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1424,11 +1432,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>156213</v>
+        <v>96786</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44853</v>
+        <v>44867</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1440,11 +1448,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>156213</v>
+        <v>96786</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44853</v>
+        <v>44867</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1456,11 +1464,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>156213</v>
+        <v>96786</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44853</v>
+        <v>44867</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1472,11 +1480,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>156213</v>
+        <v>96786</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44853</v>
+        <v>44867</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1488,11 +1496,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>156213</v>
+        <v>96786</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44853</v>
+        <v>44867</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1504,11 +1512,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>156213</v>
+        <v>96786</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44853</v>
+        <v>44867</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1520,11 +1528,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>156213</v>
+        <v>96786</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44853</v>
+        <v>44867</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1536,11 +1544,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>156213</v>
+        <v>96786</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44853</v>
+        <v>44867</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1552,11 +1560,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>156213</v>
+        <v>96786</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44853</v>
+        <v>44867</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1568,11 +1576,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>156213</v>
+        <v>96786</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44853</v>
+        <v>44867</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1584,11 +1592,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>156213</v>
+        <v>96786</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44853</v>
+        <v>44867</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1600,11 +1608,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>156213</v>
+        <v>96786</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44853</v>
+        <v>44867</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1616,11 +1624,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>156213</v>
+        <v>96786</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44853</v>
+        <v>44867</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1632,11 +1640,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>156213</v>
+        <v>96786</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44853</v>
+        <v>44867</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1648,11 +1656,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>156213</v>
+        <v>96786</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44853</v>
+        <v>44867</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1664,11 +1672,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>156213</v>
+        <v>96786</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44853</v>
+        <v>44867</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1681,11 +1689,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>156213</v>
+        <v>96786</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44853</v>
+        <v>44867</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1706,7 +1714,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>299108</v>
+        <v>339681</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1714,7 +1722,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>142895</v>
+        <v>242895</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1737,7 +1745,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>156213</v>
+        <v>96786</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/TOY VILLA.xlsx
+++ b/IMPORTANT/TOY VILLA.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>DATE</t>
   </si>
@@ -52,12 +52,6 @@
   </si>
   <si>
     <t>CUSTOMER NAME -  TOY  VILLA</t>
-  </si>
-  <si>
-    <t>INSURANCE</t>
-  </si>
-  <si>
-    <t>INSUARANCE</t>
   </si>
   <si>
     <t>rtgs</t>
@@ -1083,7 +1077,7 @@
   <dimension ref="A1:M39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+      <selection activeCell="A5" sqref="A5:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1151,154 +1145,108 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A5" s="7">
-        <v>44803</v>
-      </c>
-      <c r="B5" s="8">
-        <v>125888</v>
-      </c>
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
-      <c r="F5" s="7">
-        <v>44813</v>
-      </c>
-      <c r="G5" s="8">
-        <v>40050</v>
-      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="8"/>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>-117007</v>
+        <v>0</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>64</v>
+        <v>44879</v>
       </c>
       <c r="J5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="17.25" thickTop="1" thickBot="1">
       <c r="A6" s="7"/>
-      <c r="B6" s="8">
-        <v>300</v>
-      </c>
+      <c r="B6" s="8"/>
       <c r="C6" s="50"/>
-      <c r="D6" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="7">
-        <v>44825</v>
-      </c>
-      <c r="G6" s="8">
-        <v>50000</v>
-      </c>
+      <c r="D6" s="9"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="8"/>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>-116707</v>
+        <v>0</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44867</v>
+        <v>44879</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A7" s="49">
-        <v>44827</v>
-      </c>
-      <c r="B7" s="16">
-        <v>19662</v>
-      </c>
+      <c r="A7" s="49"/>
+      <c r="B7" s="16"/>
       <c r="C7" s="9"/>
       <c r="D7" s="51"/>
-      <c r="F7" s="49">
-        <v>44834</v>
-      </c>
-      <c r="G7" s="16">
-        <v>25800</v>
-      </c>
+      <c r="F7" s="49"/>
+      <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>-97045</v>
+        <v>0</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>40</v>
+        <v>44879</v>
       </c>
       <c r="J7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A8" s="15">
-        <v>44832</v>
-      </c>
-      <c r="B8" s="16">
-        <v>91280</v>
-      </c>
+      <c r="A8" s="15"/>
+      <c r="B8" s="16"/>
       <c r="C8" s="19"/>
       <c r="D8" s="18"/>
-      <c r="F8" s="15">
-        <v>44851</v>
-      </c>
-      <c r="G8" s="16">
-        <v>21045</v>
-      </c>
+      <c r="F8" s="15"/>
+      <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>-5765</v>
+        <v>0</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>35</v>
+        <v>44879</v>
       </c>
       <c r="J8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
       <c r="A9" s="52"/>
       <c r="B9" s="13"/>
       <c r="C9" s="14"/>
-      <c r="D9" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="15">
-        <v>44853</v>
-      </c>
-      <c r="G9" s="16">
-        <v>6000</v>
-      </c>
+      <c r="D9" s="18"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>-5765</v>
+        <v>0</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44867</v>
+        <v>44879</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A10" s="52">
-        <v>44844</v>
-      </c>
-      <c r="B10" s="13">
-        <v>31344</v>
-      </c>
+      <c r="A10" s="52"/>
+      <c r="B10" s="13"/>
       <c r="C10" s="14"/>
       <c r="D10" s="18"/>
-      <c r="F10" s="15">
-        <v>44867</v>
-      </c>
-      <c r="G10" s="16">
-        <v>100000</v>
-      </c>
+      <c r="F10" s="15"/>
+      <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>25579</v>
+        <v>0</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>23</v>
+        <v>44879</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1310,53 +1258,45 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>25579</v>
+        <v>0</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44867</v>
+        <v>44879</v>
       </c>
       <c r="M11" s="46"/>
     </row>
     <row r="12" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A12" s="52">
-        <v>44851</v>
-      </c>
-      <c r="B12" s="17">
-        <v>30634</v>
-      </c>
+      <c r="A12" s="52"/>
+      <c r="B12" s="17"/>
       <c r="C12" s="14"/>
       <c r="D12" s="18"/>
       <c r="F12" s="15"/>
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>56213</v>
+        <v>0</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>16</v>
+        <v>44879</v>
       </c>
       <c r="M12" s="46"/>
     </row>
     <row r="13" spans="1:13" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A13" s="52">
-        <v>44862</v>
-      </c>
-      <c r="B13" s="13">
-        <v>40573</v>
-      </c>
+      <c r="A13" s="52"/>
+      <c r="B13" s="13"/>
       <c r="C13" s="14"/>
       <c r="D13" s="18"/>
       <c r="F13" s="12"/>
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>96786</v>
+        <v>0</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>44879</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1368,11 +1308,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>96786</v>
+        <v>0</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44867</v>
+        <v>44879</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1384,11 +1324,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>96786</v>
+        <v>0</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44867</v>
+        <v>44879</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1400,11 +1340,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>96786</v>
+        <v>0</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44867</v>
+        <v>44879</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1416,11 +1356,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>96786</v>
+        <v>0</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44867</v>
+        <v>44879</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1432,11 +1372,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>96786</v>
+        <v>0</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44867</v>
+        <v>44879</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1448,11 +1388,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>96786</v>
+        <v>0</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44867</v>
+        <v>44879</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1464,11 +1404,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>96786</v>
+        <v>0</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44867</v>
+        <v>44879</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1480,11 +1420,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>96786</v>
+        <v>0</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44867</v>
+        <v>44879</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1496,11 +1436,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>96786</v>
+        <v>0</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44867</v>
+        <v>44879</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1512,11 +1452,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>96786</v>
+        <v>0</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44867</v>
+        <v>44879</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1528,11 +1468,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>96786</v>
+        <v>0</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44867</v>
+        <v>44879</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1544,11 +1484,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>96786</v>
+        <v>0</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44867</v>
+        <v>44879</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1560,11 +1500,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>96786</v>
+        <v>0</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44867</v>
+        <v>44879</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1576,11 +1516,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>96786</v>
+        <v>0</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44867</v>
+        <v>44879</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1592,11 +1532,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>96786</v>
+        <v>0</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44867</v>
+        <v>44879</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1608,11 +1548,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>96786</v>
+        <v>0</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44867</v>
+        <v>44879</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1624,11 +1564,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>96786</v>
+        <v>0</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44867</v>
+        <v>44879</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1640,11 +1580,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>96786</v>
+        <v>0</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44867</v>
+        <v>44879</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1656,11 +1596,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>96786</v>
+        <v>0</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44867</v>
+        <v>44879</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1672,11 +1612,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>96786</v>
+        <v>0</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44867</v>
+        <v>44879</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1689,11 +1629,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>96786</v>
+        <v>0</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44867</v>
+        <v>44879</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1714,7 +1654,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>339681</v>
+        <v>0</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1722,7 +1662,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>242895</v>
+        <v>0</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1745,7 +1685,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>96786</v>
+        <v>0</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/TOY VILLA.xlsx
+++ b/IMPORTANT/TOY VILLA.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>DATE</t>
   </si>
@@ -54,7 +54,7 @@
     <t>CUSTOMER NAME -  TOY  VILLA</t>
   </si>
   <si>
-    <t>rtgs</t>
+    <t>INSURANCE</t>
   </si>
 </sst>
 </file>
@@ -1077,7 +1077,7 @@
   <dimension ref="A1:M39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:G14"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1145,38 +1145,43 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
+      <c r="A5" s="7">
+        <v>44876</v>
+      </c>
+      <c r="B5" s="8">
+        <v>61001</v>
+      </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
       <c r="F5" s="7"/>
       <c r="G5" s="8"/>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>0</v>
+        <v>61001</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>44879</v>
-      </c>
-      <c r="J5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="17.25" thickTop="1" thickBot="1">
       <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
+      <c r="B6" s="8">
+        <v>150</v>
+      </c>
       <c r="C6" s="50"/>
-      <c r="D6" s="9"/>
+      <c r="D6" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="F6" s="7"/>
       <c r="G6" s="8"/>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>0</v>
+        <v>61151</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44879</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="17.25" thickTop="1" thickBot="1">
@@ -1188,14 +1193,11 @@
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>0</v>
+        <v>61151</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44879</v>
-      </c>
-      <c r="J7" t="s">
-        <v>12</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1207,14 +1209,11 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>0</v>
+        <v>61151</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44879</v>
-      </c>
-      <c r="J8" t="s">
-        <v>12</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1226,11 +1225,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>0</v>
+        <v>61151</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44879</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1242,11 +1241,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>61151</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44879</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1258,11 +1257,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>61151</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44879</v>
+        <v>44887</v>
       </c>
       <c r="M11" s="46"/>
     </row>
@@ -1275,11 +1274,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>61151</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44879</v>
+        <v>44887</v>
       </c>
       <c r="M12" s="46"/>
     </row>
@@ -1292,11 +1291,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>61151</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44879</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1308,11 +1307,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>61151</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44879</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1324,11 +1323,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>61151</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44879</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1340,11 +1339,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>61151</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44879</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1356,11 +1355,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>61151</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44879</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1372,11 +1371,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>61151</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44879</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1388,11 +1387,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>61151</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44879</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1404,11 +1403,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>61151</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44879</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1420,11 +1419,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>61151</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44879</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1436,11 +1435,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>61151</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44879</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1452,11 +1451,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>61151</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44879</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1468,11 +1467,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>61151</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44879</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1484,11 +1483,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>61151</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44879</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1500,11 +1499,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>61151</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44879</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1516,11 +1515,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>61151</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44879</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1532,11 +1531,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>61151</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44879</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1548,11 +1547,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>61151</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44879</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1564,11 +1563,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>61151</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44879</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1580,11 +1579,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>61151</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44879</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1596,11 +1595,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>61151</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44879</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1612,11 +1611,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>0</v>
+        <v>61151</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44879</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1629,11 +1628,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>61151</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44879</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1654,7 +1653,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>0</v>
+        <v>61151</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1685,7 +1684,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>0</v>
+        <v>61151</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/TOY VILLA.xlsx
+++ b/IMPORTANT/TOY VILLA.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>DATE</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>INSURANCE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">THROUGH  PAYTM  </t>
   </si>
 </sst>
 </file>
@@ -1077,7 +1080,7 @@
   <dimension ref="A1:M39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1153,15 +1156,19 @@
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="8"/>
+      <c r="F5" s="7">
+        <v>44902</v>
+      </c>
+      <c r="G5" s="8">
+        <v>10024</v>
+      </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>61001</v>
+        <v>20977</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="17.25" thickTop="1" thickBot="1">
@@ -1173,47 +1180,62 @@
       <c r="D6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="8"/>
+      <c r="F6" s="7">
+        <v>44905</v>
+      </c>
+      <c r="G6" s="8">
+        <v>30000</v>
+      </c>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>61151</v>
+        <v>21127</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44887</v>
+        <v>44905</v>
+      </c>
+      <c r="J6" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="17.25" thickTop="1" thickBot="1">
       <c r="A7" s="49"/>
-      <c r="B7" s="16"/>
+      <c r="B7" s="16">
+        <v>24870</v>
+      </c>
       <c r="C7" s="9"/>
       <c r="D7" s="51"/>
       <c r="F7" s="49"/>
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>61151</v>
+        <v>45997</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44887</v>
+        <v>44905</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A8" s="15"/>
-      <c r="B8" s="16"/>
+      <c r="A8" s="15">
+        <v>44905</v>
+      </c>
+      <c r="B8" s="16">
+        <v>50</v>
+      </c>
       <c r="C8" s="19"/>
-      <c r="D8" s="18"/>
+      <c r="D8" s="18" t="s">
+        <v>12</v>
+      </c>
       <c r="F8" s="15"/>
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>61151</v>
+        <v>46047</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44887</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1225,11 +1247,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>61151</v>
+        <v>46047</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44887</v>
+        <v>44905</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1241,11 +1263,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>61151</v>
+        <v>46047</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44887</v>
+        <v>44905</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1257,11 +1279,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>61151</v>
+        <v>46047</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44887</v>
+        <v>44905</v>
       </c>
       <c r="M11" s="46"/>
     </row>
@@ -1274,11 +1296,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>61151</v>
+        <v>46047</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44887</v>
+        <v>44905</v>
       </c>
       <c r="M12" s="46"/>
     </row>
@@ -1291,11 +1313,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>61151</v>
+        <v>46047</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44887</v>
+        <v>44905</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1307,11 +1329,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>61151</v>
+        <v>46047</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44887</v>
+        <v>44905</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1323,11 +1345,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>61151</v>
+        <v>46047</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44887</v>
+        <v>44905</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1339,11 +1361,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>61151</v>
+        <v>46047</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44887</v>
+        <v>44905</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1355,11 +1377,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>61151</v>
+        <v>46047</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44887</v>
+        <v>44905</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1371,11 +1393,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>61151</v>
+        <v>46047</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44887</v>
+        <v>44905</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1387,11 +1409,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>61151</v>
+        <v>46047</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44887</v>
+        <v>44905</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1403,11 +1425,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>61151</v>
+        <v>46047</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44887</v>
+        <v>44905</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1419,11 +1441,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>61151</v>
+        <v>46047</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44887</v>
+        <v>44905</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1435,11 +1457,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>61151</v>
+        <v>46047</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44887</v>
+        <v>44905</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1451,11 +1473,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>61151</v>
+        <v>46047</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44887</v>
+        <v>44905</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1467,11 +1489,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>61151</v>
+        <v>46047</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44887</v>
+        <v>44905</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1483,11 +1505,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>61151</v>
+        <v>46047</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44887</v>
+        <v>44905</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1499,11 +1521,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>61151</v>
+        <v>46047</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44887</v>
+        <v>44905</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1515,11 +1537,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>61151</v>
+        <v>46047</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44887</v>
+        <v>44905</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1531,11 +1553,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>61151</v>
+        <v>46047</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44887</v>
+        <v>44905</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1547,11 +1569,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>61151</v>
+        <v>46047</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44887</v>
+        <v>44905</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1563,11 +1585,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>61151</v>
+        <v>46047</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44887</v>
+        <v>44905</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1579,11 +1601,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>61151</v>
+        <v>46047</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44887</v>
+        <v>44905</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1595,11 +1617,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>61151</v>
+        <v>46047</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44887</v>
+        <v>44905</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1611,11 +1633,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>61151</v>
+        <v>46047</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44887</v>
+        <v>44905</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1628,11 +1650,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>61151</v>
+        <v>46047</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44887</v>
+        <v>44905</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1653,7 +1675,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>61151</v>
+        <v>86071</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1661,7 +1683,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>0</v>
+        <v>40024</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1684,7 +1706,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>61151</v>
+        <v>46047</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/TOY VILLA.xlsx
+++ b/IMPORTANT/TOY VILLA.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>DATE</t>
   </si>
@@ -54,10 +54,7 @@
     <t>CUSTOMER NAME -  TOY  VILLA</t>
   </si>
   <si>
-    <t>INSURANCE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">THROUGH  PAYTM  </t>
+    <t>insurance of 2</t>
   </si>
 </sst>
 </file>
@@ -1080,7 +1077,7 @@
   <dimension ref="A1:M39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1149,93 +1146,74 @@
     </row>
     <row r="5" spans="1:13" ht="17.25" thickTop="1" thickBot="1">
       <c r="A5" s="7">
-        <v>44876</v>
+        <v>44910</v>
       </c>
       <c r="B5" s="8">
-        <v>61001</v>
+        <v>40494</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
-      <c r="F5" s="7">
-        <v>44902</v>
-      </c>
-      <c r="G5" s="8">
-        <v>10024</v>
-      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="8"/>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>20977</v>
+        <v>40494</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>29</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="17.25" thickTop="1" thickBot="1">
       <c r="A6" s="7"/>
       <c r="B6" s="8">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="C6" s="50"/>
       <c r="D6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="7">
-        <v>44905</v>
-      </c>
-      <c r="G6" s="8">
-        <v>30000</v>
-      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="8"/>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>21127</v>
+        <v>40594</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44905</v>
-      </c>
-      <c r="J6" t="s">
-        <v>13</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="17.25" thickTop="1" thickBot="1">
       <c r="A7" s="49"/>
-      <c r="B7" s="16">
-        <v>24870</v>
-      </c>
+      <c r="B7" s="16"/>
       <c r="C7" s="9"/>
       <c r="D7" s="51"/>
       <c r="F7" s="49"/>
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>45997</v>
+        <v>40594</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44905</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A8" s="15">
-        <v>44905</v>
-      </c>
-      <c r="B8" s="16">
-        <v>50</v>
-      </c>
+      <c r="A8" s="15"/>
+      <c r="B8" s="16"/>
       <c r="C8" s="19"/>
-      <c r="D8" s="18" t="s">
-        <v>12</v>
-      </c>
+      <c r="D8" s="18"/>
       <c r="F8" s="15"/>
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>46047</v>
+        <v>40594</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>0</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1247,11 +1225,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>46047</v>
+        <v>40594</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44905</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1263,11 +1241,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>46047</v>
+        <v>40594</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44905</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1279,11 +1257,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>46047</v>
+        <v>40594</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44905</v>
+        <v>44915</v>
       </c>
       <c r="M11" s="46"/>
     </row>
@@ -1296,11 +1274,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>46047</v>
+        <v>40594</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44905</v>
+        <v>44915</v>
       </c>
       <c r="M12" s="46"/>
     </row>
@@ -1313,11 +1291,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>46047</v>
+        <v>40594</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44905</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1329,11 +1307,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>46047</v>
+        <v>40594</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44905</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1345,11 +1323,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>46047</v>
+        <v>40594</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44905</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1361,11 +1339,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>46047</v>
+        <v>40594</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44905</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1377,11 +1355,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>46047</v>
+        <v>40594</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44905</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1393,11 +1371,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>46047</v>
+        <v>40594</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44905</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1409,11 +1387,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>46047</v>
+        <v>40594</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44905</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1425,11 +1403,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>46047</v>
+        <v>40594</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44905</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1441,11 +1419,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>46047</v>
+        <v>40594</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44905</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1457,11 +1435,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>46047</v>
+        <v>40594</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44905</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1473,11 +1451,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>46047</v>
+        <v>40594</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44905</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1489,11 +1467,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>46047</v>
+        <v>40594</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44905</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1505,11 +1483,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>46047</v>
+        <v>40594</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44905</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1521,11 +1499,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>46047</v>
+        <v>40594</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44905</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1537,11 +1515,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>46047</v>
+        <v>40594</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44905</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1553,11 +1531,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>46047</v>
+        <v>40594</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44905</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1569,11 +1547,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>46047</v>
+        <v>40594</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44905</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1585,11 +1563,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>46047</v>
+        <v>40594</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44905</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1601,11 +1579,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>46047</v>
+        <v>40594</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44905</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1617,11 +1595,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>46047</v>
+        <v>40594</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44905</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1633,11 +1611,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>46047</v>
+        <v>40594</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44905</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1650,11 +1628,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>46047</v>
+        <v>40594</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44905</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1675,7 +1653,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>86071</v>
+        <v>40594</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1683,7 +1661,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>40024</v>
+        <v>0</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1706,7 +1684,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>46047</v>
+        <v>40594</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/TOY VILLA.xlsx
+++ b/IMPORTANT/TOY VILLA.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>DATE</t>
   </si>
@@ -52,9 +52,6 @@
   </si>
   <si>
     <t>CUSTOMER NAME -  TOY  VILLA</t>
-  </si>
-  <si>
-    <t>insurance of 2</t>
   </si>
 </sst>
 </file>
@@ -1077,7 +1074,7 @@
   <dimension ref="A1:M39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A5" sqref="A5:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1145,43 +1142,35 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A5" s="7">
-        <v>44910</v>
-      </c>
-      <c r="B5" s="8">
-        <v>40494</v>
-      </c>
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
       <c r="F5" s="7"/>
       <c r="G5" s="8"/>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>40494</v>
+        <v>0</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>5</v>
+        <v>44942</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8">
-        <v>100</v>
-      </c>
+      <c r="A6" s="49"/>
+      <c r="B6" s="16"/>
       <c r="C6" s="50"/>
-      <c r="D6" s="9" t="s">
-        <v>12</v>
-      </c>
+      <c r="D6" s="9"/>
       <c r="F6" s="7"/>
       <c r="G6" s="8"/>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>40594</v>
+        <v>0</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44915</v>
+        <v>44942</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="17.25" thickTop="1" thickBot="1">
@@ -1193,11 +1182,11 @@
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>40594</v>
+        <v>0</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44915</v>
+        <v>44942</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1209,11 +1198,11 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>40594</v>
+        <v>0</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44915</v>
+        <v>44942</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1225,11 +1214,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>40594</v>
+        <v>0</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44915</v>
+        <v>44942</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1241,11 +1230,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>40594</v>
+        <v>0</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44942</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1257,11 +1246,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>40594</v>
+        <v>0</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44942</v>
       </c>
       <c r="M11" s="46"/>
     </row>
@@ -1274,11 +1263,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>40594</v>
+        <v>0</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44942</v>
       </c>
       <c r="M12" s="46"/>
     </row>
@@ -1291,11 +1280,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>40594</v>
+        <v>0</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44942</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1307,11 +1296,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>40594</v>
+        <v>0</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44942</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1323,11 +1312,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>40594</v>
+        <v>0</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44942</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1339,11 +1328,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>40594</v>
+        <v>0</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44942</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1355,11 +1344,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>40594</v>
+        <v>0</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44942</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1371,11 +1360,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>40594</v>
+        <v>0</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44942</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1387,11 +1376,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>40594</v>
+        <v>0</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44942</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1403,11 +1392,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>40594</v>
+        <v>0</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44942</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1419,11 +1408,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>40594</v>
+        <v>0</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44915</v>
+        <v>44942</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1435,11 +1424,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>40594</v>
+        <v>0</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44942</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1451,11 +1440,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>40594</v>
+        <v>0</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44942</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1467,11 +1456,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>40594</v>
+        <v>0</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44942</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1483,11 +1472,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>40594</v>
+        <v>0</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44942</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1499,11 +1488,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>40594</v>
+        <v>0</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44942</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1515,11 +1504,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>40594</v>
+        <v>0</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44942</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1531,11 +1520,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>40594</v>
+        <v>0</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44942</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1547,11 +1536,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>40594</v>
+        <v>0</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44942</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1563,11 +1552,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>40594</v>
+        <v>0</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44942</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1579,11 +1568,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>40594</v>
+        <v>0</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44942</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1595,11 +1584,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>40594</v>
+        <v>0</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44942</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1611,11 +1600,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>40594</v>
+        <v>0</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44942</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1628,11 +1617,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>40594</v>
+        <v>0</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44915</v>
+        <v>44942</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1653,7 +1642,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>40594</v>
+        <v>0</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1684,7 +1673,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>40594</v>
+        <v>0</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/TOY VILLA.xlsx
+++ b/IMPORTANT/TOY VILLA.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>DATE</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>CUSTOMER NAME -  TOY  VILLA</t>
+  </si>
+  <si>
+    <t>INSURANCE</t>
   </si>
 </sst>
 </file>
@@ -1074,7 +1077,7 @@
   <dimension ref="A1:M39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:G8"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1142,35 +1145,43 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
+      <c r="A5" s="7">
+        <v>44936</v>
+      </c>
+      <c r="B5" s="8">
+        <v>35130</v>
+      </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
       <c r="F5" s="7"/>
       <c r="G5" s="8"/>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>0</v>
+        <v>35130</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>44942</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="17.25" thickTop="1" thickBot="1">
       <c r="A6" s="49"/>
-      <c r="B6" s="16"/>
+      <c r="B6" s="16">
+        <v>100</v>
+      </c>
       <c r="C6" s="50"/>
-      <c r="D6" s="9"/>
+      <c r="D6" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="F6" s="7"/>
       <c r="G6" s="8"/>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>0</v>
+        <v>35230</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44942</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="17.25" thickTop="1" thickBot="1">
@@ -1182,11 +1193,11 @@
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>0</v>
+        <v>35230</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44942</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1198,11 +1209,11 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>0</v>
+        <v>35230</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44942</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1214,11 +1225,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>0</v>
+        <v>35230</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44942</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1230,11 +1241,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>35230</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44942</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1246,11 +1257,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>35230</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44942</v>
+        <v>44956</v>
       </c>
       <c r="M11" s="46"/>
     </row>
@@ -1263,11 +1274,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>35230</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44942</v>
+        <v>44956</v>
       </c>
       <c r="M12" s="46"/>
     </row>
@@ -1280,11 +1291,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>35230</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44942</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1296,11 +1307,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>35230</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44942</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1312,11 +1323,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>35230</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44942</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1328,11 +1339,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>35230</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44942</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1344,11 +1355,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>35230</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44942</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1360,11 +1371,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>35230</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44942</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1376,11 +1387,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>35230</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44942</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1392,11 +1403,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>35230</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44942</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1408,11 +1419,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>35230</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44942</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1424,11 +1435,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>35230</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44942</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1440,11 +1451,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>35230</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44942</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1456,11 +1467,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>35230</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44942</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1472,11 +1483,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>35230</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44942</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1488,11 +1499,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>35230</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44942</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1504,11 +1515,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>35230</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44942</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1520,11 +1531,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>35230</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44942</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1536,11 +1547,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>35230</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44942</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1552,11 +1563,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>35230</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44942</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1568,11 +1579,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>35230</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44942</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1584,11 +1595,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>35230</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44942</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1600,11 +1611,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>0</v>
+        <v>35230</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44942</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1617,11 +1628,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>35230</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44942</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1642,7 +1653,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>0</v>
+        <v>35230</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1673,7 +1684,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>0</v>
+        <v>35230</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/TOY VILLA.xlsx
+++ b/IMPORTANT/TOY VILLA.xlsx
@@ -1076,8 +1076,8 @@
   </sheetPr>
   <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection sqref="A1:J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1161,7 +1161,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>20</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="17.25" thickTop="1" thickBot="1">
@@ -1181,7 +1181,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44956</v>
+        <v>44970</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="17.25" thickTop="1" thickBot="1">
@@ -1197,7 +1197,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44956</v>
+        <v>44970</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1213,7 +1213,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44956</v>
+        <v>44970</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1229,7 +1229,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44956</v>
+        <v>44970</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1245,7 +1245,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44970</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1261,7 +1261,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44970</v>
       </c>
       <c r="M11" s="46"/>
     </row>
@@ -1278,7 +1278,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44970</v>
       </c>
       <c r="M12" s="46"/>
     </row>
@@ -1295,7 +1295,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44970</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1311,7 +1311,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44970</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1327,7 +1327,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44970</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1343,7 +1343,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44970</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1359,7 +1359,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44970</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1375,7 +1375,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44970</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44970</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1407,7 +1407,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44970</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1423,7 +1423,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44956</v>
+        <v>44970</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1439,7 +1439,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44970</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1455,7 +1455,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44970</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1471,7 +1471,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44970</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1487,7 +1487,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44970</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1503,7 +1503,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44970</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1519,7 +1519,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44970</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1535,7 +1535,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44970</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44970</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1567,7 +1567,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44970</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1583,7 +1583,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44970</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44970</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1615,7 +1615,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44970</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1632,7 +1632,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44956</v>
+        <v>44970</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">

--- a/IMPORTANT/TOY VILLA.xlsx
+++ b/IMPORTANT/TOY VILLA.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>DATE</t>
   </si>
@@ -52,9 +52,6 @@
   </si>
   <si>
     <t>CUSTOMER NAME -  TOY  VILLA</t>
-  </si>
-  <si>
-    <t>INSURANCE</t>
   </si>
 </sst>
 </file>
@@ -1076,8 +1073,8 @@
   </sheetPr>
   <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection sqref="A1:J38"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1146,10 +1143,10 @@
     </row>
     <row r="5" spans="1:13" ht="17.25" thickTop="1" thickBot="1">
       <c r="A5" s="7">
-        <v>44936</v>
+        <v>44972</v>
       </c>
       <c r="B5" s="8">
-        <v>35130</v>
+        <v>88488</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
@@ -1157,31 +1154,27 @@
       <c r="G5" s="8"/>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>35130</v>
+        <v>88488</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>34</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="17.25" thickTop="1" thickBot="1">
       <c r="A6" s="49"/>
-      <c r="B6" s="16">
-        <v>100</v>
-      </c>
+      <c r="B6" s="16"/>
       <c r="C6" s="50"/>
-      <c r="D6" s="9" t="s">
-        <v>12</v>
-      </c>
+      <c r="D6" s="9"/>
       <c r="F6" s="7"/>
       <c r="G6" s="8"/>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>35230</v>
+        <v>88488</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44970</v>
+        <v>44975</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="17.25" thickTop="1" thickBot="1">
@@ -1193,11 +1186,11 @@
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>35230</v>
+        <v>88488</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44970</v>
+        <v>44975</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1209,11 +1202,11 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>35230</v>
+        <v>88488</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44970</v>
+        <v>44975</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1225,11 +1218,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>35230</v>
+        <v>88488</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44970</v>
+        <v>44975</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1241,11 +1234,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>35230</v>
+        <v>88488</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44970</v>
+        <v>44975</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1257,11 +1250,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>35230</v>
+        <v>88488</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44970</v>
+        <v>44975</v>
       </c>
       <c r="M11" s="46"/>
     </row>
@@ -1274,11 +1267,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>35230</v>
+        <v>88488</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44970</v>
+        <v>44975</v>
       </c>
       <c r="M12" s="46"/>
     </row>
@@ -1291,11 +1284,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>35230</v>
+        <v>88488</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44970</v>
+        <v>44975</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1307,11 +1300,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>35230</v>
+        <v>88488</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44970</v>
+        <v>44975</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1323,11 +1316,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>35230</v>
+        <v>88488</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44970</v>
+        <v>44975</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1339,11 +1332,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>35230</v>
+        <v>88488</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44970</v>
+        <v>44975</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1355,11 +1348,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>35230</v>
+        <v>88488</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44970</v>
+        <v>44975</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1371,11 +1364,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>35230</v>
+        <v>88488</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44970</v>
+        <v>44975</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1387,11 +1380,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>35230</v>
+        <v>88488</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44970</v>
+        <v>44975</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1403,11 +1396,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>35230</v>
+        <v>88488</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44970</v>
+        <v>44975</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1419,11 +1412,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>35230</v>
+        <v>88488</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44970</v>
+        <v>44975</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1435,11 +1428,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>35230</v>
+        <v>88488</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44970</v>
+        <v>44975</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1451,11 +1444,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>35230</v>
+        <v>88488</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44970</v>
+        <v>44975</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1467,11 +1460,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>35230</v>
+        <v>88488</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44970</v>
+        <v>44975</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1483,11 +1476,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>35230</v>
+        <v>88488</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44970</v>
+        <v>44975</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1499,11 +1492,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>35230</v>
+        <v>88488</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44970</v>
+        <v>44975</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1515,11 +1508,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>35230</v>
+        <v>88488</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44970</v>
+        <v>44975</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1531,11 +1524,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>35230</v>
+        <v>88488</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44970</v>
+        <v>44975</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1547,11 +1540,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>35230</v>
+        <v>88488</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44970</v>
+        <v>44975</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1563,11 +1556,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>35230</v>
+        <v>88488</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44970</v>
+        <v>44975</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1579,11 +1572,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>35230</v>
+        <v>88488</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44970</v>
+        <v>44975</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1595,11 +1588,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>35230</v>
+        <v>88488</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44970</v>
+        <v>44975</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1611,11 +1604,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>35230</v>
+        <v>88488</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44970</v>
+        <v>44975</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1628,11 +1621,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>35230</v>
+        <v>88488</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44970</v>
+        <v>44975</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1653,7 +1646,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>35230</v>
+        <v>88488</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1684,7 +1677,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>35230</v>
+        <v>88488</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/TOY VILLA.xlsx
+++ b/IMPORTANT/TOY VILLA.xlsx
@@ -1158,7 +1158,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="17.25" thickTop="1" thickBot="1">
@@ -1174,7 +1174,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44975</v>
+        <v>44984</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="17.25" thickTop="1" thickBot="1">
@@ -1190,7 +1190,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44975</v>
+        <v>44984</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1206,7 +1206,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44975</v>
+        <v>44984</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1222,7 +1222,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44975</v>
+        <v>44984</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1238,7 +1238,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44975</v>
+        <v>44984</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1254,7 +1254,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44975</v>
+        <v>44984</v>
       </c>
       <c r="M11" s="46"/>
     </row>
@@ -1271,7 +1271,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44975</v>
+        <v>44984</v>
       </c>
       <c r="M12" s="46"/>
     </row>
@@ -1288,7 +1288,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44975</v>
+        <v>44984</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1304,7 +1304,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44975</v>
+        <v>44984</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44975</v>
+        <v>44984</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44975</v>
+        <v>44984</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1352,7 +1352,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44975</v>
+        <v>44984</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1368,7 +1368,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44975</v>
+        <v>44984</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44975</v>
+        <v>44984</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1400,7 +1400,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44975</v>
+        <v>44984</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1416,7 +1416,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44975</v>
+        <v>44984</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44975</v>
+        <v>44984</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1448,7 +1448,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44975</v>
+        <v>44984</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44975</v>
+        <v>44984</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44975</v>
+        <v>44984</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1496,7 +1496,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44975</v>
+        <v>44984</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1512,7 +1512,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44975</v>
+        <v>44984</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44975</v>
+        <v>44984</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1544,7 +1544,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44975</v>
+        <v>44984</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1560,7 +1560,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44975</v>
+        <v>44984</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44975</v>
+        <v>44984</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1592,7 +1592,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44975</v>
+        <v>44984</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1608,7 +1608,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44975</v>
+        <v>44984</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1625,7 +1625,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44975</v>
+        <v>44984</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">

--- a/IMPORTANT/TOY VILLA.xlsx
+++ b/IMPORTANT/TOY VILLA.xlsx
@@ -1074,7 +1074,7 @@
   <dimension ref="A1:M39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1150,15 +1150,19 @@
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="8"/>
+      <c r="F5" s="7">
+        <v>44995</v>
+      </c>
+      <c r="G5" s="8">
+        <v>20000</v>
+      </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>88488</v>
+        <v>8488</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="17.25" thickTop="1" thickBot="1">
@@ -1166,15 +1170,19 @@
       <c r="B6" s="16"/>
       <c r="C6" s="50"/>
       <c r="D6" s="9"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="8"/>
+      <c r="F6" s="7">
+        <v>44996</v>
+      </c>
+      <c r="G6" s="8">
+        <v>60000</v>
+      </c>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>88488</v>
+        <v>8488</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44984</v>
+        <v>44996</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="17.25" thickTop="1" thickBot="1">
@@ -1186,11 +1194,11 @@
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>88488</v>
+        <v>8488</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44984</v>
+        <v>44996</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1202,11 +1210,11 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>88488</v>
+        <v>8488</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44984</v>
+        <v>44996</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1218,11 +1226,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>88488</v>
+        <v>8488</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44984</v>
+        <v>44996</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1234,11 +1242,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>88488</v>
+        <v>8488</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44984</v>
+        <v>44996</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1250,11 +1258,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>88488</v>
+        <v>8488</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44984</v>
+        <v>44996</v>
       </c>
       <c r="M11" s="46"/>
     </row>
@@ -1267,11 +1275,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>88488</v>
+        <v>8488</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44984</v>
+        <v>44996</v>
       </c>
       <c r="M12" s="46"/>
     </row>
@@ -1284,11 +1292,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>88488</v>
+        <v>8488</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44984</v>
+        <v>44996</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1300,11 +1308,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>88488</v>
+        <v>8488</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44984</v>
+        <v>44996</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1316,11 +1324,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>88488</v>
+        <v>8488</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44984</v>
+        <v>44996</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1332,11 +1340,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>88488</v>
+        <v>8488</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44984</v>
+        <v>44996</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1348,11 +1356,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>88488</v>
+        <v>8488</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44984</v>
+        <v>44996</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1364,11 +1372,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>88488</v>
+        <v>8488</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44984</v>
+        <v>44996</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1380,11 +1388,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>88488</v>
+        <v>8488</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44984</v>
+        <v>44996</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1396,11 +1404,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>88488</v>
+        <v>8488</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44984</v>
+        <v>44996</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1412,11 +1420,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>88488</v>
+        <v>8488</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44984</v>
+        <v>44996</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1428,11 +1436,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>88488</v>
+        <v>8488</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44984</v>
+        <v>44996</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1444,11 +1452,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>88488</v>
+        <v>8488</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44984</v>
+        <v>44996</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1460,11 +1468,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>88488</v>
+        <v>8488</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44984</v>
+        <v>44996</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1476,11 +1484,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>88488</v>
+        <v>8488</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44984</v>
+        <v>44996</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1492,11 +1500,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>88488</v>
+        <v>8488</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44984</v>
+        <v>44996</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1508,11 +1516,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>88488</v>
+        <v>8488</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44984</v>
+        <v>44996</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1524,11 +1532,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>88488</v>
+        <v>8488</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44984</v>
+        <v>44996</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1540,11 +1548,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>88488</v>
+        <v>8488</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44984</v>
+        <v>44996</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1556,11 +1564,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>88488</v>
+        <v>8488</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44984</v>
+        <v>44996</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1572,11 +1580,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>88488</v>
+        <v>8488</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44984</v>
+        <v>44996</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1588,11 +1596,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>88488</v>
+        <v>8488</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44984</v>
+        <v>44996</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1604,11 +1612,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>88488</v>
+        <v>8488</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44984</v>
+        <v>44996</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1621,11 +1629,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>88488</v>
+        <v>8488</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44984</v>
+        <v>44996</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1654,7 +1662,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1677,7 +1685,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>88488</v>
+        <v>8488</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/TOY VILLA.xlsx
+++ b/IMPORTANT/TOY VILLA.xlsx
@@ -1162,7 +1162,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="17.25" thickTop="1" thickBot="1">
@@ -1182,7 +1182,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44996</v>
+        <v>44999</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="17.25" thickTop="1" thickBot="1">
@@ -1198,7 +1198,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44996</v>
+        <v>44999</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1214,7 +1214,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44996</v>
+        <v>44999</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1230,7 +1230,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44996</v>
+        <v>44999</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1246,7 +1246,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44996</v>
+        <v>44999</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1262,7 +1262,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44996</v>
+        <v>44999</v>
       </c>
       <c r="M11" s="46"/>
     </row>
@@ -1279,7 +1279,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44996</v>
+        <v>44999</v>
       </c>
       <c r="M12" s="46"/>
     </row>
@@ -1296,7 +1296,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44996</v>
+        <v>44999</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1312,7 +1312,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44996</v>
+        <v>44999</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1328,7 +1328,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44996</v>
+        <v>44999</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1344,7 +1344,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44996</v>
+        <v>44999</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1360,7 +1360,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44996</v>
+        <v>44999</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1376,7 +1376,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44996</v>
+        <v>44999</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1392,7 +1392,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44996</v>
+        <v>44999</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1408,7 +1408,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44996</v>
+        <v>44999</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1424,7 +1424,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44996</v>
+        <v>44999</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1440,7 +1440,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44996</v>
+        <v>44999</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1456,7 +1456,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44996</v>
+        <v>44999</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1472,7 +1472,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44996</v>
+        <v>44999</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1488,7 +1488,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44996</v>
+        <v>44999</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1504,7 +1504,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44996</v>
+        <v>44999</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1520,7 +1520,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44996</v>
+        <v>44999</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44996</v>
+        <v>44999</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1552,7 +1552,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44996</v>
+        <v>44999</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1568,7 +1568,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44996</v>
+        <v>44999</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1584,7 +1584,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44996</v>
+        <v>44999</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1600,7 +1600,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44996</v>
+        <v>44999</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1616,7 +1616,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44996</v>
+        <v>44999</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1633,7 +1633,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44996</v>
+        <v>44999</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">

--- a/IMPORTANT/TOY VILLA.xlsx
+++ b/IMPORTANT/TOY VILLA.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>DATE</t>
   </si>
@@ -52,6 +52,12 @@
   </si>
   <si>
     <t>CUSTOMER NAME -  TOY  VILLA</t>
+  </si>
+  <si>
+    <t>3 PARCEL</t>
+  </si>
+  <si>
+    <t>1 PARCEL</t>
   </si>
 </sst>
 </file>
@@ -1074,7 +1080,7 @@
   <dimension ref="A1:M39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1143,46 +1149,46 @@
     </row>
     <row r="5" spans="1:13" ht="17.25" thickTop="1" thickBot="1">
       <c r="A5" s="7">
-        <v>44972</v>
+        <v>45003</v>
       </c>
       <c r="B5" s="8">
-        <v>88488</v>
+        <v>72084</v>
       </c>
       <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="F5" s="7">
-        <v>44995</v>
-      </c>
-      <c r="G5" s="8">
-        <v>20000</v>
-      </c>
+      <c r="D5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="8"/>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>8488</v>
+        <v>72084</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>27</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A6" s="49"/>
-      <c r="B6" s="16"/>
+      <c r="A6" s="49">
+        <v>45007</v>
+      </c>
+      <c r="B6" s="16">
+        <v>10120</v>
+      </c>
       <c r="C6" s="50"/>
-      <c r="D6" s="9"/>
-      <c r="F6" s="7">
-        <v>44996</v>
-      </c>
-      <c r="G6" s="8">
-        <v>60000</v>
-      </c>
+      <c r="D6" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="8"/>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>8488</v>
+        <v>82204</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44999</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="17.25" thickTop="1" thickBot="1">
@@ -1194,11 +1200,11 @@
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>8488</v>
+        <v>82204</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44999</v>
+        <v>45013</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1210,11 +1216,11 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>8488</v>
+        <v>82204</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44999</v>
+        <v>45013</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1226,11 +1232,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>8488</v>
+        <v>82204</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44999</v>
+        <v>45013</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1242,11 +1248,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>8488</v>
+        <v>82204</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44999</v>
+        <v>45013</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1258,11 +1264,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>8488</v>
+        <v>82204</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44999</v>
+        <v>45013</v>
       </c>
       <c r="M11" s="46"/>
     </row>
@@ -1275,11 +1281,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>8488</v>
+        <v>82204</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44999</v>
+        <v>45013</v>
       </c>
       <c r="M12" s="46"/>
     </row>
@@ -1292,11 +1298,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>8488</v>
+        <v>82204</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44999</v>
+        <v>45013</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1308,11 +1314,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>8488</v>
+        <v>82204</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44999</v>
+        <v>45013</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1324,11 +1330,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>8488</v>
+        <v>82204</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44999</v>
+        <v>45013</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1340,11 +1346,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>8488</v>
+        <v>82204</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44999</v>
+        <v>45013</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1356,11 +1362,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>8488</v>
+        <v>82204</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44999</v>
+        <v>45013</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1372,11 +1378,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>8488</v>
+        <v>82204</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44999</v>
+        <v>45013</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1388,11 +1394,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>8488</v>
+        <v>82204</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44999</v>
+        <v>45013</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1404,11 +1410,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>8488</v>
+        <v>82204</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44999</v>
+        <v>45013</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1420,11 +1426,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>8488</v>
+        <v>82204</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44999</v>
+        <v>45013</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1436,11 +1442,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>8488</v>
+        <v>82204</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44999</v>
+        <v>45013</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1452,11 +1458,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>8488</v>
+        <v>82204</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44999</v>
+        <v>45013</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1468,11 +1474,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>8488</v>
+        <v>82204</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44999</v>
+        <v>45013</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1484,11 +1490,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>8488</v>
+        <v>82204</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44999</v>
+        <v>45013</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1500,11 +1506,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>8488</v>
+        <v>82204</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44999</v>
+        <v>45013</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1516,11 +1522,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>8488</v>
+        <v>82204</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44999</v>
+        <v>45013</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1532,11 +1538,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>8488</v>
+        <v>82204</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44999</v>
+        <v>45013</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1548,11 +1554,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>8488</v>
+        <v>82204</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44999</v>
+        <v>45013</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1564,11 +1570,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>8488</v>
+        <v>82204</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44999</v>
+        <v>45013</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1580,11 +1586,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>8488</v>
+        <v>82204</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44999</v>
+        <v>45013</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1596,11 +1602,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>8488</v>
+        <v>82204</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44999</v>
+        <v>45013</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1612,11 +1618,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>8488</v>
+        <v>82204</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44999</v>
+        <v>45013</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1629,11 +1635,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>8488</v>
+        <v>82204</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44999</v>
+        <v>45013</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1654,7 +1660,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>88488</v>
+        <v>82204</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1662,7 +1668,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>80000</v>
+        <v>0</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1685,7 +1691,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>8488</v>
+        <v>82204</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/TOY VILLA.xlsx
+++ b/IMPORTANT/TOY VILLA.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>DATE</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>1 PARCEL</t>
+  </si>
+  <si>
+    <t>4 PARCEL</t>
   </si>
 </sst>
 </file>
@@ -1080,7 +1083,7 @@
   <dimension ref="A1:M39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1158,15 +1161,19 @@
       <c r="D5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="8"/>
+      <c r="F5" s="7">
+        <v>45031</v>
+      </c>
+      <c r="G5" s="8">
+        <v>40188</v>
+      </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>72084</v>
+        <v>-18104</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>10</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="17.25" thickTop="1" thickBot="1">
@@ -1180,31 +1187,41 @@
       <c r="D6" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="8"/>
+      <c r="F6" s="7">
+        <v>45041</v>
+      </c>
+      <c r="G6" s="8">
+        <v>50000</v>
+      </c>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>82204</v>
+        <v>-7984</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>6</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A7" s="49"/>
-      <c r="B7" s="16"/>
+      <c r="A7" s="49">
+        <v>45031</v>
+      </c>
+      <c r="B7" s="16">
+        <v>44584</v>
+      </c>
       <c r="C7" s="9"/>
-      <c r="D7" s="51"/>
+      <c r="D7" s="51" t="s">
+        <v>14</v>
+      </c>
       <c r="F7" s="49"/>
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>82204</v>
+        <v>36600</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>45013</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1216,11 +1233,11 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>82204</v>
+        <v>36600</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>45013</v>
+        <v>45041</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1232,11 +1249,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>82204</v>
+        <v>36600</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>45013</v>
+        <v>45041</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1248,11 +1265,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>82204</v>
+        <v>36600</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45013</v>
+        <v>45041</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1264,11 +1281,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>82204</v>
+        <v>36600</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45013</v>
+        <v>45041</v>
       </c>
       <c r="M11" s="46"/>
     </row>
@@ -1281,11 +1298,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>82204</v>
+        <v>36600</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45013</v>
+        <v>45041</v>
       </c>
       <c r="M12" s="46"/>
     </row>
@@ -1298,11 +1315,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>82204</v>
+        <v>36600</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45013</v>
+        <v>45041</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1314,11 +1331,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>82204</v>
+        <v>36600</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45013</v>
+        <v>45041</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1330,11 +1347,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>82204</v>
+        <v>36600</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45013</v>
+        <v>45041</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1346,11 +1363,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>82204</v>
+        <v>36600</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45013</v>
+        <v>45041</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1362,11 +1379,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>82204</v>
+        <v>36600</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45013</v>
+        <v>45041</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1378,11 +1395,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>82204</v>
+        <v>36600</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45013</v>
+        <v>45041</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1394,11 +1411,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>82204</v>
+        <v>36600</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45013</v>
+        <v>45041</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1410,11 +1427,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>82204</v>
+        <v>36600</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45013</v>
+        <v>45041</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1426,11 +1443,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>82204</v>
+        <v>36600</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>45013</v>
+        <v>45041</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1442,11 +1459,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>82204</v>
+        <v>36600</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45013</v>
+        <v>45041</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1458,11 +1475,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>82204</v>
+        <v>36600</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45013</v>
+        <v>45041</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1474,11 +1491,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>82204</v>
+        <v>36600</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45013</v>
+        <v>45041</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1490,11 +1507,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>82204</v>
+        <v>36600</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45013</v>
+        <v>45041</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1506,11 +1523,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>82204</v>
+        <v>36600</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45013</v>
+        <v>45041</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1522,11 +1539,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>82204</v>
+        <v>36600</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45013</v>
+        <v>45041</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1538,11 +1555,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>82204</v>
+        <v>36600</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45013</v>
+        <v>45041</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1554,11 +1571,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>82204</v>
+        <v>36600</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45013</v>
+        <v>45041</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1570,11 +1587,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>82204</v>
+        <v>36600</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45013</v>
+        <v>45041</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1586,11 +1603,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>82204</v>
+        <v>36600</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45013</v>
+        <v>45041</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1602,11 +1619,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>82204</v>
+        <v>36600</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45013</v>
+        <v>45041</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1618,11 +1635,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>82204</v>
+        <v>36600</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45013</v>
+        <v>45041</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1635,11 +1652,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>82204</v>
+        <v>36600</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>45013</v>
+        <v>45041</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1660,7 +1677,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>82204</v>
+        <v>126788</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1668,7 +1685,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>0</v>
+        <v>90188</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1691,7 +1708,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>82204</v>
+        <v>36600</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/TOY VILLA.xlsx
+++ b/IMPORTANT/TOY VILLA.xlsx
@@ -1083,7 +1083,7 @@
   <dimension ref="A1:M39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1169,11 +1169,11 @@
       </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>-18104</v>
+        <v>-45120</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="17.25" thickTop="1" thickBot="1">
@@ -1195,11 +1195,11 @@
       </c>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>-7984</v>
+        <v>-35000</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="17.25" thickTop="1" thickBot="1">
@@ -1213,15 +1213,19 @@
       <c r="D7" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="49"/>
-      <c r="G7" s="16"/>
+      <c r="F7" s="49">
+        <v>45048</v>
+      </c>
+      <c r="G7" s="16">
+        <v>27016</v>
+      </c>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>36600</v>
+        <v>9584</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1233,11 +1237,11 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>36600</v>
+        <v>9584</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>45041</v>
+        <v>45048</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1249,11 +1253,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>36600</v>
+        <v>9584</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>45041</v>
+        <v>45048</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1265,11 +1269,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>36600</v>
+        <v>9584</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45041</v>
+        <v>45048</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1281,11 +1285,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>36600</v>
+        <v>9584</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45041</v>
+        <v>45048</v>
       </c>
       <c r="M11" s="46"/>
     </row>
@@ -1298,11 +1302,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>36600</v>
+        <v>9584</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45041</v>
+        <v>45048</v>
       </c>
       <c r="M12" s="46"/>
     </row>
@@ -1315,11 +1319,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>36600</v>
+        <v>9584</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45041</v>
+        <v>45048</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1331,11 +1335,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>36600</v>
+        <v>9584</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45041</v>
+        <v>45048</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1347,11 +1351,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>36600</v>
+        <v>9584</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45041</v>
+        <v>45048</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1363,11 +1367,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>36600</v>
+        <v>9584</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45041</v>
+        <v>45048</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1379,11 +1383,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>36600</v>
+        <v>9584</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45041</v>
+        <v>45048</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1395,11 +1399,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>36600</v>
+        <v>9584</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45041</v>
+        <v>45048</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1411,11 +1415,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>36600</v>
+        <v>9584</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45041</v>
+        <v>45048</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1427,11 +1431,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>36600</v>
+        <v>9584</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45041</v>
+        <v>45048</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1443,11 +1447,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>36600</v>
+        <v>9584</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>45041</v>
+        <v>45048</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1459,11 +1463,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>36600</v>
+        <v>9584</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45041</v>
+        <v>45048</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1475,11 +1479,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>36600</v>
+        <v>9584</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45041</v>
+        <v>45048</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1491,11 +1495,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>36600</v>
+        <v>9584</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45041</v>
+        <v>45048</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1507,11 +1511,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>36600</v>
+        <v>9584</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45041</v>
+        <v>45048</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1523,11 +1527,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>36600</v>
+        <v>9584</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45041</v>
+        <v>45048</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1539,11 +1543,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>36600</v>
+        <v>9584</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45041</v>
+        <v>45048</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1555,11 +1559,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>36600</v>
+        <v>9584</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45041</v>
+        <v>45048</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1571,11 +1575,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>36600</v>
+        <v>9584</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45041</v>
+        <v>45048</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1587,11 +1591,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>36600</v>
+        <v>9584</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45041</v>
+        <v>45048</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1603,11 +1607,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>36600</v>
+        <v>9584</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45041</v>
+        <v>45048</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1619,11 +1623,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>36600</v>
+        <v>9584</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45041</v>
+        <v>45048</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1635,11 +1639,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>36600</v>
+        <v>9584</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45041</v>
+        <v>45048</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1652,11 +1656,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>36600</v>
+        <v>9584</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>45041</v>
+        <v>45048</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1685,7 +1689,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>90188</v>
+        <v>117204</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1708,7 +1712,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>36600</v>
+        <v>9584</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/TOY VILLA.xlsx
+++ b/IMPORTANT/TOY VILLA.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>DATE</t>
   </si>
@@ -61,6 +61,9 @@
   </si>
   <si>
     <t>4 PARCEL</t>
+  </si>
+  <si>
+    <t>insurance</t>
   </si>
 </sst>
 </file>
@@ -1083,7 +1086,7 @@
   <dimension ref="A1:M39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1173,7 +1176,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>45</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="17.25" thickTop="1" thickBot="1">
@@ -1199,7 +1202,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="17.25" thickTop="1" thickBot="1">
@@ -1225,39 +1228,47 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A8" s="15"/>
-      <c r="B8" s="16"/>
+      <c r="A8" s="15">
+        <v>45050</v>
+      </c>
+      <c r="B8" s="16">
+        <v>14962</v>
+      </c>
       <c r="C8" s="19"/>
       <c r="D8" s="18"/>
       <c r="F8" s="15"/>
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>9584</v>
+        <v>24546</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>45048</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
       <c r="A9" s="52"/>
-      <c r="B9" s="13"/>
+      <c r="B9" s="13">
+        <v>50</v>
+      </c>
       <c r="C9" s="14"/>
-      <c r="D9" s="18"/>
+      <c r="D9" s="18" t="s">
+        <v>15</v>
+      </c>
       <c r="F9" s="15"/>
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>9584</v>
+        <v>24596</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>45048</v>
+        <v>45056</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1269,11 +1280,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>9584</v>
+        <v>24596</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45048</v>
+        <v>45056</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1285,11 +1296,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>9584</v>
+        <v>24596</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45048</v>
+        <v>45056</v>
       </c>
       <c r="M11" s="46"/>
     </row>
@@ -1302,11 +1313,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>9584</v>
+        <v>24596</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45048</v>
+        <v>45056</v>
       </c>
       <c r="M12" s="46"/>
     </row>
@@ -1319,11 +1330,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>9584</v>
+        <v>24596</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45048</v>
+        <v>45056</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1335,11 +1346,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>9584</v>
+        <v>24596</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45048</v>
+        <v>45056</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1351,11 +1362,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>9584</v>
+        <v>24596</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45048</v>
+        <v>45056</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1367,11 +1378,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>9584</v>
+        <v>24596</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45048</v>
+        <v>45056</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1383,11 +1394,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>9584</v>
+        <v>24596</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45048</v>
+        <v>45056</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1399,11 +1410,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>9584</v>
+        <v>24596</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45048</v>
+        <v>45056</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1415,11 +1426,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>9584</v>
+        <v>24596</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45048</v>
+        <v>45056</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1431,11 +1442,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>9584</v>
+        <v>24596</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45048</v>
+        <v>45056</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1447,11 +1458,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>9584</v>
+        <v>24596</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>45048</v>
+        <v>45056</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1463,11 +1474,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>9584</v>
+        <v>24596</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45048</v>
+        <v>45056</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1479,11 +1490,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>9584</v>
+        <v>24596</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45048</v>
+        <v>45056</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1495,11 +1506,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>9584</v>
+        <v>24596</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45048</v>
+        <v>45056</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1511,11 +1522,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>9584</v>
+        <v>24596</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45048</v>
+        <v>45056</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1527,11 +1538,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>9584</v>
+        <v>24596</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45048</v>
+        <v>45056</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1543,11 +1554,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>9584</v>
+        <v>24596</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45048</v>
+        <v>45056</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1559,11 +1570,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>9584</v>
+        <v>24596</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45048</v>
+        <v>45056</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1575,11 +1586,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>9584</v>
+        <v>24596</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45048</v>
+        <v>45056</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1591,11 +1602,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>9584</v>
+        <v>24596</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45048</v>
+        <v>45056</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1607,11 +1618,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>9584</v>
+        <v>24596</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45048</v>
+        <v>45056</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1623,11 +1634,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>9584</v>
+        <v>24596</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45048</v>
+        <v>45056</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1639,11 +1650,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>9584</v>
+        <v>24596</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45048</v>
+        <v>45056</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1656,11 +1667,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>9584</v>
+        <v>24596</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>45048</v>
+        <v>45056</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1681,7 +1692,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>126788</v>
+        <v>141800</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1712,7 +1723,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>9584</v>
+        <v>24596</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/TOY VILLA.xlsx
+++ b/IMPORTANT/TOY VILLA.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>DATE</t>
   </si>
@@ -64,6 +64,12 @@
   </si>
   <si>
     <t>insurance</t>
+  </si>
+  <si>
+    <t>WITH INSURANCE</t>
+  </si>
+  <si>
+    <t>NEFT</t>
   </si>
 </sst>
 </file>
@@ -1086,7 +1092,7 @@
   <dimension ref="A1:M39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1172,11 +1178,11 @@
       </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>-45120</v>
+        <v>-135120</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>53</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="17.25" thickTop="1" thickBot="1">
@@ -1198,11 +1204,11 @@
       </c>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>-35000</v>
+        <v>-125000</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>49</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="17.25" thickTop="1" thickBot="1">
@@ -1224,11 +1230,11 @@
       </c>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>9584</v>
+        <v>-80416</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>25</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1240,15 +1246,22 @@
       </c>
       <c r="C8" s="19"/>
       <c r="D8" s="18"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="16"/>
+      <c r="F8" s="15">
+        <v>45086</v>
+      </c>
+      <c r="G8" s="16">
+        <v>40000</v>
+      </c>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>24546</v>
+        <v>-65454</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>6</v>
+        <v>41</v>
+      </c>
+      <c r="J8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1260,81 +1273,105 @@
       <c r="D9" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="15"/>
-      <c r="G9" s="16"/>
+      <c r="F9" s="15">
+        <v>45090</v>
+      </c>
+      <c r="G9" s="16">
+        <v>50000</v>
+      </c>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>24596</v>
+        <v>-65404</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>45056</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A10" s="52"/>
-      <c r="B10" s="13"/>
+      <c r="A10" s="52">
+        <v>45062</v>
+      </c>
+      <c r="B10" s="13">
+        <v>13444</v>
+      </c>
       <c r="C10" s="14"/>
       <c r="D10" s="18"/>
       <c r="F10" s="15"/>
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>24596</v>
+        <v>-51960</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45056</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A11" s="52"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="19"/>
+      <c r="A11" s="52">
+        <v>45078</v>
+      </c>
+      <c r="B11" s="17">
+        <v>25114</v>
+      </c>
+      <c r="C11" s="19">
+        <v>100</v>
+      </c>
       <c r="D11" s="18"/>
       <c r="F11" s="15"/>
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>24596</v>
+        <v>-26746</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45056</v>
+        <v>13</v>
       </c>
       <c r="M11" s="46"/>
     </row>
     <row r="12" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A12" s="52"/>
-      <c r="B12" s="17"/>
+      <c r="A12" s="52">
+        <v>45087</v>
+      </c>
+      <c r="B12" s="17">
+        <v>15168</v>
+      </c>
       <c r="C12" s="14"/>
-      <c r="D12" s="18"/>
+      <c r="D12" s="18" t="s">
+        <v>16</v>
+      </c>
       <c r="F12" s="15"/>
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>24596</v>
+        <v>-11578</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45056</v>
+        <v>4</v>
       </c>
       <c r="M12" s="46"/>
     </row>
     <row r="13" spans="1:13" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A13" s="52"/>
-      <c r="B13" s="13"/>
+      <c r="A13" s="52">
+        <v>45089</v>
+      </c>
+      <c r="B13" s="13">
+        <v>14100</v>
+      </c>
       <c r="C13" s="14"/>
       <c r="D13" s="18"/>
       <c r="F13" s="12"/>
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>24596</v>
+        <v>2522</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45056</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1346,11 +1383,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>24596</v>
+        <v>2522</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45056</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1362,11 +1399,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>24596</v>
+        <v>2522</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45056</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1378,11 +1415,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>24596</v>
+        <v>2522</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45056</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1394,11 +1431,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>24596</v>
+        <v>2522</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45056</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1410,11 +1447,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>24596</v>
+        <v>2522</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45056</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1426,11 +1463,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>24596</v>
+        <v>2522</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45056</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1442,11 +1479,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>24596</v>
+        <v>2522</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45056</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1458,11 +1495,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>24596</v>
+        <v>2522</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>45056</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1474,11 +1511,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>24596</v>
+        <v>2522</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45056</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1490,11 +1527,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>24596</v>
+        <v>2522</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45056</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1506,11 +1543,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>24596</v>
+        <v>2522</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45056</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1522,11 +1559,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>24596</v>
+        <v>2522</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45056</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1538,11 +1575,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>24596</v>
+        <v>2522</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45056</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1554,11 +1591,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>24596</v>
+        <v>2522</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45056</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1570,11 +1607,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>24596</v>
+        <v>2522</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45056</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1586,11 +1623,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>24596</v>
+        <v>2522</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45056</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1602,11 +1639,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>24596</v>
+        <v>2522</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45056</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1618,11 +1655,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>24596</v>
+        <v>2522</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45056</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1634,11 +1671,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>24596</v>
+        <v>2522</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45056</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1650,11 +1687,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>24596</v>
+        <v>2522</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45056</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1667,11 +1704,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>24596</v>
+        <v>2522</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>45056</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1692,7 +1729,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>141800</v>
+        <v>209726</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1700,7 +1737,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>117204</v>
+        <v>207204</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1723,7 +1760,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>24596</v>
+        <v>2522</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/TOY VILLA.xlsx
+++ b/IMPORTANT/TOY VILLA.xlsx
@@ -1091,8 +1091,8 @@
   </sheetPr>
   <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection sqref="A1:J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1182,7 +1182,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>88</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="17.25" thickTop="1" thickBot="1">
@@ -1208,7 +1208,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="17.25" thickTop="1" thickBot="1">
@@ -1234,7 +1234,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1258,7 +1258,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="J8" t="s">
         <v>17</v>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>45091</v>
+        <v>45098</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1327,7 +1327,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="M11" s="46"/>
     </row>
@@ -1350,7 +1350,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="M12" s="46"/>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1387,7 +1387,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45098</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1403,7 +1403,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45098</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1419,7 +1419,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45098</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1435,7 +1435,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45098</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1451,7 +1451,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45098</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1467,7 +1467,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45098</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1483,7 +1483,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45098</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1499,7 +1499,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>45091</v>
+        <v>45098</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1515,7 +1515,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45098</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45098</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1547,7 +1547,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45098</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1563,7 +1563,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45098</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1579,7 +1579,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45098</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1595,7 +1595,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45098</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1611,7 +1611,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45098</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45098</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1643,7 +1643,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45098</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1659,7 +1659,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45098</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1675,7 +1675,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45098</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45098</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1708,7 +1708,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>45091</v>
+        <v>45098</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">

--- a/IMPORTANT/TOY VILLA.xlsx
+++ b/IMPORTANT/TOY VILLA.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>DATE</t>
   </si>
@@ -54,22 +54,7 @@
     <t>CUSTOMER NAME -  TOY  VILLA</t>
   </si>
   <si>
-    <t>3 PARCEL</t>
-  </si>
-  <si>
-    <t>1 PARCEL</t>
-  </si>
-  <si>
-    <t>4 PARCEL</t>
-  </si>
-  <si>
-    <t>insurance</t>
-  </si>
-  <si>
-    <t>WITH INSURANCE</t>
-  </si>
-  <si>
-    <t>NEFT</t>
+    <t>5 CRTN</t>
   </si>
 </sst>
 </file>
@@ -1091,8 +1076,8 @@
   </sheetPr>
   <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection sqref="A1:J38"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1161,217 +1146,154 @@
     </row>
     <row r="5" spans="1:13" ht="17.25" thickTop="1" thickBot="1">
       <c r="A5" s="7">
-        <v>45003</v>
+        <v>45100</v>
       </c>
       <c r="B5" s="8">
-        <v>72084</v>
+        <v>70120</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="7">
-        <v>45031</v>
-      </c>
-      <c r="G5" s="8">
-        <v>40188</v>
-      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="8"/>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>-135120</v>
+        <v>70120</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>95</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A6" s="49">
-        <v>45007</v>
-      </c>
-      <c r="B6" s="16">
-        <v>10120</v>
-      </c>
+      <c r="A6" s="49"/>
+      <c r="B6" s="16"/>
       <c r="C6" s="50"/>
-      <c r="D6" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="7">
-        <v>45041</v>
-      </c>
-      <c r="G6" s="8">
-        <v>50000</v>
-      </c>
+      <c r="D6" s="9"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="8"/>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>-125000</v>
+        <v>70120</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>91</v>
+        <v>45112</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A7" s="49">
-        <v>45031</v>
-      </c>
-      <c r="B7" s="16">
-        <v>44584</v>
-      </c>
+      <c r="A7" s="49"/>
+      <c r="B7" s="16"/>
       <c r="C7" s="9"/>
-      <c r="D7" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="49">
-        <v>45048</v>
-      </c>
-      <c r="G7" s="16">
-        <v>27016</v>
-      </c>
+      <c r="D7" s="51"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>-80416</v>
+        <v>70120</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>67</v>
+        <v>45112</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A8" s="15">
-        <v>45050</v>
-      </c>
-      <c r="B8" s="16">
-        <v>14962</v>
-      </c>
+      <c r="A8" s="15"/>
+      <c r="B8" s="16"/>
       <c r="C8" s="19"/>
       <c r="D8" s="18"/>
-      <c r="F8" s="15">
-        <v>45086</v>
-      </c>
-      <c r="G8" s="16">
-        <v>40000</v>
-      </c>
+      <c r="F8" s="15"/>
+      <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>-65454</v>
+        <v>70120</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>48</v>
-      </c>
-      <c r="J8" t="s">
-        <v>17</v>
+        <v>45112</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
       <c r="A9" s="52"/>
-      <c r="B9" s="13">
-        <v>50</v>
-      </c>
+      <c r="B9" s="13"/>
       <c r="C9" s="14"/>
-      <c r="D9" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="15">
-        <v>45090</v>
-      </c>
-      <c r="G9" s="16">
-        <v>50000</v>
-      </c>
+      <c r="D9" s="18"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>-65404</v>
+        <v>70120</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>45098</v>
+        <v>45112</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A10" s="52">
-        <v>45062</v>
-      </c>
-      <c r="B10" s="13">
-        <v>13444</v>
-      </c>
+      <c r="A10" s="52"/>
+      <c r="B10" s="13"/>
       <c r="C10" s="14"/>
       <c r="D10" s="18"/>
       <c r="F10" s="15"/>
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>-51960</v>
+        <v>70120</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>36</v>
+        <v>45112</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A11" s="52">
-        <v>45078</v>
-      </c>
-      <c r="B11" s="17">
-        <v>25114</v>
-      </c>
-      <c r="C11" s="19">
-        <v>100</v>
-      </c>
+      <c r="A11" s="52"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="19"/>
       <c r="D11" s="18"/>
       <c r="F11" s="15"/>
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>-26746</v>
+        <v>70120</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>20</v>
+        <v>45112</v>
       </c>
       <c r="M11" s="46"/>
     </row>
     <row r="12" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A12" s="52">
-        <v>45087</v>
-      </c>
-      <c r="B12" s="17">
-        <v>15168</v>
-      </c>
+      <c r="A12" s="52"/>
+      <c r="B12" s="17"/>
       <c r="C12" s="14"/>
-      <c r="D12" s="18" t="s">
-        <v>16</v>
-      </c>
+      <c r="D12" s="18"/>
       <c r="F12" s="15"/>
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>-11578</v>
+        <v>70120</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>45112</v>
       </c>
       <c r="M12" s="46"/>
     </row>
     <row r="13" spans="1:13" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A13" s="52">
-        <v>45089</v>
-      </c>
-      <c r="B13" s="13">
-        <v>14100</v>
-      </c>
+      <c r="A13" s="52"/>
+      <c r="B13" s="13"/>
       <c r="C13" s="14"/>
       <c r="D13" s="18"/>
       <c r="F13" s="12"/>
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>2522</v>
+        <v>70120</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>45112</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1383,11 +1305,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>2522</v>
+        <v>70120</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45098</v>
+        <v>45112</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1399,11 +1321,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>2522</v>
+        <v>70120</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45098</v>
+        <v>45112</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1415,11 +1337,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>2522</v>
+        <v>70120</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45098</v>
+        <v>45112</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1431,11 +1353,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>2522</v>
+        <v>70120</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45098</v>
+        <v>45112</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1447,11 +1369,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>2522</v>
+        <v>70120</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45098</v>
+        <v>45112</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1463,11 +1385,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>2522</v>
+        <v>70120</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45098</v>
+        <v>45112</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1479,11 +1401,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>2522</v>
+        <v>70120</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45098</v>
+        <v>45112</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1495,11 +1417,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>2522</v>
+        <v>70120</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>45098</v>
+        <v>45112</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1511,11 +1433,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>2522</v>
+        <v>70120</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45098</v>
+        <v>45112</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1527,11 +1449,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>2522</v>
+        <v>70120</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45098</v>
+        <v>45112</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1543,11 +1465,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>2522</v>
+        <v>70120</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45098</v>
+        <v>45112</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1559,11 +1481,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>2522</v>
+        <v>70120</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45098</v>
+        <v>45112</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1575,11 +1497,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>2522</v>
+        <v>70120</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45098</v>
+        <v>45112</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1591,11 +1513,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>2522</v>
+        <v>70120</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45098</v>
+        <v>45112</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1607,11 +1529,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>2522</v>
+        <v>70120</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45098</v>
+        <v>45112</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1623,11 +1545,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>2522</v>
+        <v>70120</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45098</v>
+        <v>45112</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1639,11 +1561,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>2522</v>
+        <v>70120</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45098</v>
+        <v>45112</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1655,11 +1577,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>2522</v>
+        <v>70120</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45098</v>
+        <v>45112</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1671,11 +1593,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>2522</v>
+        <v>70120</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45098</v>
+        <v>45112</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1687,11 +1609,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>2522</v>
+        <v>70120</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45098</v>
+        <v>45112</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1704,11 +1626,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>2522</v>
+        <v>70120</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>45098</v>
+        <v>45112</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1729,7 +1651,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>209726</v>
+        <v>70120</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1737,7 +1659,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>207204</v>
+        <v>0</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1760,7 +1682,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>2522</v>
+        <v>70120</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/TOY VILLA.xlsx
+++ b/IMPORTANT/TOY VILLA.xlsx
@@ -1077,7 +1077,7 @@
   <dimension ref="A1:M39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1163,23 +1163,27 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A6" s="49"/>
-      <c r="B6" s="16"/>
+      <c r="A6" s="49">
+        <v>45110</v>
+      </c>
+      <c r="B6" s="16">
+        <v>54490</v>
+      </c>
       <c r="C6" s="50"/>
       <c r="D6" s="9"/>
       <c r="F6" s="7"/>
       <c r="G6" s="8"/>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>70120</v>
+        <v>124610</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>45112</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="17.25" thickTop="1" thickBot="1">
@@ -1191,11 +1195,11 @@
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>70120</v>
+        <v>124610</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>45112</v>
+        <v>45125</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1207,11 +1211,11 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>70120</v>
+        <v>124610</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>45112</v>
+        <v>45125</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1223,11 +1227,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>70120</v>
+        <v>124610</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>45112</v>
+        <v>45125</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1239,11 +1243,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>70120</v>
+        <v>124610</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45112</v>
+        <v>45125</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1255,11 +1259,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>70120</v>
+        <v>124610</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45112</v>
+        <v>45125</v>
       </c>
       <c r="M11" s="46"/>
     </row>
@@ -1272,11 +1276,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>70120</v>
+        <v>124610</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45112</v>
+        <v>45125</v>
       </c>
       <c r="M12" s="46"/>
     </row>
@@ -1289,11 +1293,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>70120</v>
+        <v>124610</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45112</v>
+        <v>45125</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1305,11 +1309,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>70120</v>
+        <v>124610</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45112</v>
+        <v>45125</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1321,11 +1325,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>70120</v>
+        <v>124610</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45112</v>
+        <v>45125</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1337,11 +1341,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>70120</v>
+        <v>124610</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45112</v>
+        <v>45125</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1353,11 +1357,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>70120</v>
+        <v>124610</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45112</v>
+        <v>45125</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1369,11 +1373,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>70120</v>
+        <v>124610</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45112</v>
+        <v>45125</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1385,11 +1389,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>70120</v>
+        <v>124610</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45112</v>
+        <v>45125</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1401,11 +1405,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>70120</v>
+        <v>124610</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45112</v>
+        <v>45125</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1417,11 +1421,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>70120</v>
+        <v>124610</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>45112</v>
+        <v>45125</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1433,11 +1437,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>70120</v>
+        <v>124610</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45112</v>
+        <v>45125</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1449,11 +1453,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>70120</v>
+        <v>124610</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45112</v>
+        <v>45125</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1465,11 +1469,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>70120</v>
+        <v>124610</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45112</v>
+        <v>45125</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1481,11 +1485,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>70120</v>
+        <v>124610</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45112</v>
+        <v>45125</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1497,11 +1501,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>70120</v>
+        <v>124610</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45112</v>
+        <v>45125</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1513,11 +1517,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>70120</v>
+        <v>124610</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45112</v>
+        <v>45125</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1529,11 +1533,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>70120</v>
+        <v>124610</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45112</v>
+        <v>45125</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1545,11 +1549,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>70120</v>
+        <v>124610</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45112</v>
+        <v>45125</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1561,11 +1565,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>70120</v>
+        <v>124610</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45112</v>
+        <v>45125</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1577,11 +1581,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>70120</v>
+        <v>124610</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45112</v>
+        <v>45125</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1593,11 +1597,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>70120</v>
+        <v>124610</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45112</v>
+        <v>45125</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1609,11 +1613,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>70120</v>
+        <v>124610</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45112</v>
+        <v>45125</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1626,11 +1630,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>70120</v>
+        <v>124610</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>45112</v>
+        <v>45125</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1651,7 +1655,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>70120</v>
+        <v>124610</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1682,7 +1686,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>70120</v>
+        <v>124610</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/TOY VILLA.xlsx
+++ b/IMPORTANT/TOY VILLA.xlsx
@@ -1077,7 +1077,7 @@
   <dimension ref="A1:M39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1155,15 +1155,19 @@
       <c r="D5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="8"/>
+      <c r="F5" s="7">
+        <v>45143</v>
+      </c>
+      <c r="G5" s="8">
+        <v>50000</v>
+      </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>70120</v>
+        <v>20120</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>25</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="17.25" thickTop="1" thickBot="1">
@@ -1179,11 +1183,11 @@
       <c r="G6" s="8"/>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>124610</v>
+        <v>74610</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="17.25" thickTop="1" thickBot="1">
@@ -1195,11 +1199,11 @@
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>124610</v>
+        <v>74610</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>45125</v>
+        <v>45143</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1211,11 +1215,11 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>124610</v>
+        <v>74610</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>45125</v>
+        <v>45143</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1227,11 +1231,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>124610</v>
+        <v>74610</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>45125</v>
+        <v>45143</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1243,11 +1247,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>124610</v>
+        <v>74610</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45125</v>
+        <v>45143</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1259,11 +1263,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>124610</v>
+        <v>74610</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45125</v>
+        <v>45143</v>
       </c>
       <c r="M11" s="46"/>
     </row>
@@ -1276,11 +1280,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>124610</v>
+        <v>74610</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45125</v>
+        <v>45143</v>
       </c>
       <c r="M12" s="46"/>
     </row>
@@ -1293,11 +1297,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>124610</v>
+        <v>74610</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45125</v>
+        <v>45143</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1309,11 +1313,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>124610</v>
+        <v>74610</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45125</v>
+        <v>45143</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1325,11 +1329,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>124610</v>
+        <v>74610</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45125</v>
+        <v>45143</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1341,11 +1345,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>124610</v>
+        <v>74610</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45125</v>
+        <v>45143</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1357,11 +1361,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>124610</v>
+        <v>74610</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45125</v>
+        <v>45143</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1373,11 +1377,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>124610</v>
+        <v>74610</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45125</v>
+        <v>45143</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1389,11 +1393,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>124610</v>
+        <v>74610</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45125</v>
+        <v>45143</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1405,11 +1409,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>124610</v>
+        <v>74610</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45125</v>
+        <v>45143</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1421,11 +1425,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>124610</v>
+        <v>74610</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>45125</v>
+        <v>45143</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1437,11 +1441,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>124610</v>
+        <v>74610</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45125</v>
+        <v>45143</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1453,11 +1457,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>124610</v>
+        <v>74610</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45125</v>
+        <v>45143</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1469,11 +1473,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>124610</v>
+        <v>74610</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45125</v>
+        <v>45143</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1485,11 +1489,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>124610</v>
+        <v>74610</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45125</v>
+        <v>45143</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1501,11 +1505,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>124610</v>
+        <v>74610</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45125</v>
+        <v>45143</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1517,11 +1521,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>124610</v>
+        <v>74610</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45125</v>
+        <v>45143</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1533,11 +1537,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>124610</v>
+        <v>74610</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45125</v>
+        <v>45143</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1549,11 +1553,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>124610</v>
+        <v>74610</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45125</v>
+        <v>45143</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1565,11 +1569,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>124610</v>
+        <v>74610</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45125</v>
+        <v>45143</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1581,11 +1585,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>124610</v>
+        <v>74610</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45125</v>
+        <v>45143</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1597,11 +1601,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>124610</v>
+        <v>74610</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45125</v>
+        <v>45143</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1613,11 +1617,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>124610</v>
+        <v>74610</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45125</v>
+        <v>45143</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1630,11 +1634,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>124610</v>
+        <v>74610</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>45125</v>
+        <v>45143</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1663,7 +1667,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1686,7 +1690,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>124610</v>
+        <v>74610</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/TOY VILLA.xlsx
+++ b/IMPORTANT/TOY VILLA.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7980"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>DATE</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>5 CRTN</t>
+  </si>
+  <si>
+    <t>687-1 MIX 1 CARTOON</t>
   </si>
 </sst>
 </file>
@@ -1149,7 +1152,7 @@
         <v>45100</v>
       </c>
       <c r="B5" s="8">
-        <v>70120</v>
+        <v>70480</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9" t="s">
@@ -1163,11 +1166,11 @@
       </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>20120</v>
+        <v>-44579</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>43</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="17.25" thickTop="1" thickBot="1">
@@ -1179,47 +1182,61 @@
       </c>
       <c r="C6" s="50"/>
       <c r="D6" s="9"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="8"/>
+      <c r="F6" s="7">
+        <v>45154</v>
+      </c>
+      <c r="G6" s="8">
+        <v>65059</v>
+      </c>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>74610</v>
+        <v>9911</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A7" s="49"/>
-      <c r="B7" s="16"/>
+      <c r="A7" s="49">
+        <v>45140</v>
+      </c>
+      <c r="B7" s="16">
+        <v>7940</v>
+      </c>
       <c r="C7" s="9"/>
-      <c r="D7" s="51"/>
+      <c r="D7" s="51" t="s">
+        <v>13</v>
+      </c>
       <c r="F7" s="49"/>
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>74610</v>
+        <v>17851</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>45143</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A8" s="15"/>
-      <c r="B8" s="16"/>
+      <c r="A8" s="15">
+        <v>45142</v>
+      </c>
+      <c r="B8" s="16">
+        <v>3940</v>
+      </c>
       <c r="C8" s="19"/>
       <c r="D8" s="18"/>
       <c r="F8" s="15"/>
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>74610</v>
+        <v>21791</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>45143</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1231,11 +1248,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>74610</v>
+        <v>21791</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>45143</v>
+        <v>45154</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1247,11 +1264,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>74610</v>
+        <v>21791</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45143</v>
+        <v>45154</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1263,11 +1280,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>74610</v>
+        <v>21791</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45143</v>
+        <v>45154</v>
       </c>
       <c r="M11" s="46"/>
     </row>
@@ -1280,11 +1297,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>74610</v>
+        <v>21791</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45143</v>
+        <v>45154</v>
       </c>
       <c r="M12" s="46"/>
     </row>
@@ -1297,11 +1314,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>74610</v>
+        <v>21791</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45143</v>
+        <v>45154</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1313,11 +1330,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>74610</v>
+        <v>21791</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45143</v>
+        <v>45154</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1329,11 +1346,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>74610</v>
+        <v>21791</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45143</v>
+        <v>45154</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1345,11 +1362,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>74610</v>
+        <v>21791</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45143</v>
+        <v>45154</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1361,11 +1378,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>74610</v>
+        <v>21791</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45143</v>
+        <v>45154</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1377,11 +1394,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>74610</v>
+        <v>21791</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45143</v>
+        <v>45154</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1393,11 +1410,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>74610</v>
+        <v>21791</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45143</v>
+        <v>45154</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1409,11 +1426,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>74610</v>
+        <v>21791</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45143</v>
+        <v>45154</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1425,11 +1442,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>74610</v>
+        <v>21791</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>45143</v>
+        <v>45154</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1441,11 +1458,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>74610</v>
+        <v>21791</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45143</v>
+        <v>45154</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1457,11 +1474,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>74610</v>
+        <v>21791</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45143</v>
+        <v>45154</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1473,11 +1490,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>74610</v>
+        <v>21791</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45143</v>
+        <v>45154</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1489,11 +1506,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>74610</v>
+        <v>21791</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45143</v>
+        <v>45154</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1505,11 +1522,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>74610</v>
+        <v>21791</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45143</v>
+        <v>45154</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1521,11 +1538,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>74610</v>
+        <v>21791</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45143</v>
+        <v>45154</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1537,11 +1554,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>74610</v>
+        <v>21791</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45143</v>
+        <v>45154</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1553,11 +1570,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>74610</v>
+        <v>21791</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45143</v>
+        <v>45154</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1569,11 +1586,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>74610</v>
+        <v>21791</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45143</v>
+        <v>45154</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1585,11 +1602,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>74610</v>
+        <v>21791</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45143</v>
+        <v>45154</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1601,11 +1618,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>74610</v>
+        <v>21791</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45143</v>
+        <v>45154</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1617,11 +1634,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>74610</v>
+        <v>21791</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45143</v>
+        <v>45154</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1634,11 +1651,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>74610</v>
+        <v>21791</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>45143</v>
+        <v>45154</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1659,7 +1676,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>124610</v>
+        <v>136850</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1667,7 +1684,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>50000</v>
+        <v>115059</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1690,7 +1707,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>74610</v>
+        <v>21791</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/TOY VILLA.xlsx
+++ b/IMPORTANT/TOY VILLA.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>DATE</t>
   </si>
@@ -52,12 +52,6 @@
   </si>
   <si>
     <t>CUSTOMER NAME -  TOY  VILLA</t>
-  </si>
-  <si>
-    <t>5 CRTN</t>
-  </si>
-  <si>
-    <t>687-1 MIX 1 CARTOON</t>
   </si>
 </sst>
 </file>
@@ -1080,7 +1074,7 @@
   <dimension ref="A1:M39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1149,94 +1143,78 @@
     </row>
     <row r="5" spans="1:13" ht="17.25" thickTop="1" thickBot="1">
       <c r="A5" s="7">
-        <v>45100</v>
+        <v>45190</v>
       </c>
       <c r="B5" s="8">
-        <v>70480</v>
+        <v>45024</v>
       </c>
       <c r="C5" s="9"/>
-      <c r="D5" s="9" t="s">
-        <v>12</v>
-      </c>
+      <c r="D5" s="9"/>
       <c r="F5" s="7">
-        <v>45143</v>
+        <v>45215</v>
       </c>
       <c r="G5" s="8">
-        <v>50000</v>
+        <v>45024</v>
       </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>-44579</v>
+        <v>0</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>54</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="17.25" thickTop="1" thickBot="1">
       <c r="A6" s="49">
-        <v>45110</v>
+        <v>45190</v>
       </c>
       <c r="B6" s="16">
-        <v>54490</v>
+        <v>56312</v>
       </c>
       <c r="C6" s="50"/>
       <c r="D6" s="9"/>
-      <c r="F6" s="7">
-        <v>45154</v>
-      </c>
-      <c r="G6" s="8">
-        <v>65059</v>
-      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="8"/>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>9911</v>
+        <v>56312</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A7" s="49">
-        <v>45140</v>
-      </c>
-      <c r="B7" s="16">
-        <v>7940</v>
-      </c>
+      <c r="A7" s="49"/>
+      <c r="B7" s="16"/>
       <c r="C7" s="9"/>
-      <c r="D7" s="51" t="s">
-        <v>13</v>
-      </c>
+      <c r="D7" s="51"/>
       <c r="F7" s="49"/>
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>17851</v>
+        <v>56312</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>14</v>
+        <v>45223</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A8" s="15">
-        <v>45142</v>
-      </c>
-      <c r="B8" s="16">
-        <v>3940</v>
-      </c>
+      <c r="A8" s="15"/>
+      <c r="B8" s="16"/>
       <c r="C8" s="19"/>
       <c r="D8" s="18"/>
       <c r="F8" s="15"/>
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>21791</v>
+        <v>56312</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>12</v>
+        <v>45223</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1248,11 +1226,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>21791</v>
+        <v>56312</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>45154</v>
+        <v>45223</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1264,11 +1242,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>21791</v>
+        <v>56312</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45154</v>
+        <v>45223</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1280,11 +1258,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>21791</v>
+        <v>56312</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45154</v>
+        <v>45223</v>
       </c>
       <c r="M11" s="46"/>
     </row>
@@ -1297,11 +1275,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>21791</v>
+        <v>56312</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45154</v>
+        <v>45223</v>
       </c>
       <c r="M12" s="46"/>
     </row>
@@ -1314,11 +1292,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>21791</v>
+        <v>56312</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45154</v>
+        <v>45223</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1330,11 +1308,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>21791</v>
+        <v>56312</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45154</v>
+        <v>45223</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1346,11 +1324,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>21791</v>
+        <v>56312</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45154</v>
+        <v>45223</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1362,11 +1340,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>21791</v>
+        <v>56312</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45154</v>
+        <v>45223</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1378,11 +1356,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>21791</v>
+        <v>56312</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45154</v>
+        <v>45223</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1394,11 +1372,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>21791</v>
+        <v>56312</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45154</v>
+        <v>45223</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1410,11 +1388,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>21791</v>
+        <v>56312</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45154</v>
+        <v>45223</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1426,11 +1404,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>21791</v>
+        <v>56312</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45154</v>
+        <v>45223</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1442,11 +1420,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>21791</v>
+        <v>56312</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>45154</v>
+        <v>45223</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1458,11 +1436,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>21791</v>
+        <v>56312</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45154</v>
+        <v>45223</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1474,11 +1452,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>21791</v>
+        <v>56312</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45154</v>
+        <v>45223</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1490,11 +1468,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>21791</v>
+        <v>56312</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45154</v>
+        <v>45223</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1506,11 +1484,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>21791</v>
+        <v>56312</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45154</v>
+        <v>45223</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1522,11 +1500,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>21791</v>
+        <v>56312</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45154</v>
+        <v>45223</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1538,11 +1516,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>21791</v>
+        <v>56312</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45154</v>
+        <v>45223</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1554,11 +1532,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>21791</v>
+        <v>56312</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45154</v>
+        <v>45223</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1570,11 +1548,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>21791</v>
+        <v>56312</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45154</v>
+        <v>45223</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1586,11 +1564,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>21791</v>
+        <v>56312</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45154</v>
+        <v>45223</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1602,11 +1580,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>21791</v>
+        <v>56312</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45154</v>
+        <v>45223</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1618,11 +1596,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>21791</v>
+        <v>56312</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45154</v>
+        <v>45223</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1634,11 +1612,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>21791</v>
+        <v>56312</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45154</v>
+        <v>45223</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1651,11 +1629,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>21791</v>
+        <v>56312</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>45154</v>
+        <v>45223</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1676,7 +1654,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>136850</v>
+        <v>101336</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1684,7 +1662,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>115059</v>
+        <v>45024</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1707,7 +1685,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>21791</v>
+        <v>56312</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>
